--- a/tmp/V3-Auto-Daily-Report.xlsx
+++ b/tmp/V3-Auto-Daily-Report.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="37305" yWindow="630" windowWidth="21630" windowHeight="13590" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Master Form for report" sheetId="1" state="visible" r:id="rId1"/>
@@ -47,7 +47,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-m\-d"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
@@ -138,12 +138,6 @@
       <name val="&quot;Google Sans&quot;"/>
       <color rgb="FF1F1F1F"/>
       <sz val="9"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -374,11 +368,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -448,11 +441,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -497,9 +486,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -775,40 +763,40 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:T255"/>
+  <dimension ref="A3:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D22" sqref="D22:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" ht="13.2" customHeight="1" s="58"/>
-    <row r="2" ht="13.2" customHeight="1" s="58"/>
-    <row r="3" ht="13.2" customHeight="1" s="58">
-      <c r="D3" s="63" t="inlineStr">
-        <is>
-          <t>01-15-2024</t>
-        </is>
-      </c>
-      <c r="E3" s="64" t="n"/>
-      <c r="F3" s="65" t="n"/>
-      <c r="H3" s="63" t="inlineStr">
-        <is>
-          <t>01-16-2024</t>
-        </is>
-      </c>
-      <c r="I3" s="64" t="n"/>
-      <c r="J3" s="65" t="n"/>
-      <c r="L3" s="63" t="inlineStr">
+    <row r="1" ht="13.2" customHeight="1" s="56"/>
+    <row r="2" ht="13.2" customHeight="1" s="56"/>
+    <row r="3" ht="13.2" customHeight="1" s="56">
+      <c r="D3" s="61" t="inlineStr">
         <is>
           <t>01-17-2024</t>
         </is>
       </c>
-      <c r="M3" s="64" t="n"/>
-      <c r="N3" s="65" t="n"/>
-    </row>
-    <row r="4" ht="13.2" customHeight="1" s="58">
+      <c r="E3" s="62" t="n"/>
+      <c r="F3" s="63" t="n"/>
+      <c r="H3" s="61" t="inlineStr">
+        <is>
+          <t>01-18-2024</t>
+        </is>
+      </c>
+      <c r="I3" s="62" t="n"/>
+      <c r="J3" s="63" t="n"/>
+      <c r="L3" s="61" t="inlineStr">
+        <is>
+          <t>01-19-2024</t>
+        </is>
+      </c>
+      <c r="M3" s="62" t="n"/>
+      <c r="N3" s="63" t="n"/>
+    </row>
+    <row r="4" ht="13.2" customHeight="1" s="56">
       <c r="D4" s="1" t="inlineStr">
         <is>
           <t>Pakg Status</t>
@@ -855,160 +843,170 @@
         </is>
       </c>
     </row>
-    <row r="5" ht="13.2" customHeight="1" s="58">
+    <row r="5" ht="13.2" customHeight="1" s="56">
       <c r="D5" s="41" t="n">
         <v>195</v>
       </c>
       <c r="E5" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" s="43">
-        <f>E5/E19</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
       </c>
       <c r="H5" s="41" t="n">
         <v>195</v>
       </c>
       <c r="I5" s="42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" s="43">
-        <f>I5/I19</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L5" s="41" t="n">
         <v>195</v>
       </c>
       <c r="M5" s="42" t="n">
-        <v>7</v>
-      </c>
-      <c r="N5" s="43">
-        <f>M5/M19</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="N5" s="5" t="inlineStr">
+        <is>
+          <t>0.06%</t>
+        </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>160992</v>
+        <v>21130</v>
       </c>
       <c r="S5" t="n">
         <v>202</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="13.2" customHeight="1" s="58">
-      <c r="D6" s="44" t="n">
+          <t>PHSUB-202401201603</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="13.2" customHeight="1" s="56">
+      <c r="D6" s="43" t="n">
         <v>199</v>
       </c>
-      <c r="E6" s="44" t="n">
+      <c r="E6" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="45">
-        <f>E6/E19</f>
-        <v/>
-      </c>
-      <c r="H6" s="44" t="n">
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H6" s="43" t="n">
         <v>199</v>
       </c>
-      <c r="I6" s="44" t="n">
+      <c r="I6" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="J6" s="45">
-        <f>I6/I19</f>
-        <v/>
-      </c>
-      <c r="L6" s="44" t="n">
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="L6" s="43" t="n">
         <v>199</v>
       </c>
-      <c r="M6" s="44" t="n">
+      <c r="M6" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="45">
-        <f>M6/M19</f>
-        <v/>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R6" t="n">
         <v>21105</v>
       </c>
       <c r="S6" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="13.2" customHeight="1" s="58">
-      <c r="D7" s="44" t="n">
+          <t>PHSUB-202401201603</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="13.2" customHeight="1" s="56">
+      <c r="D7" s="43" t="n">
         <v>200</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="45">
-        <f>E7/E19</f>
-        <v/>
-      </c>
-      <c r="H7" s="44" t="n">
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H7" s="43" t="n">
         <v>200</v>
       </c>
-      <c r="I7" s="44" t="n">
+      <c r="I7" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="J7" s="45">
-        <f>I7/I19</f>
-        <v/>
-      </c>
-      <c r="L7" s="44" t="n">
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="L7" s="43" t="n">
         <v>200</v>
       </c>
-      <c r="M7" s="44" t="n">
+      <c r="M7" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="45">
-        <f>M7/M19</f>
-        <v/>
+      <c r="N7" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>22306</v>
+        <v>21129</v>
       </c>
       <c r="S7" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="13.2" customHeight="1" s="58">
+          <t>PHSUB-202401201603</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="13.2" customHeight="1" s="56">
       <c r="D8" s="3" t="n">
         <v>202</v>
       </c>
       <c r="E8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
-        <f>E8/E19</f>
-        <v/>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H8" s="3" t="n">
         <v>202</v>
@@ -1016,9 +1014,10 @@
       <c r="I8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>I8/I19</f>
-        <v/>
+      <c r="J8" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L8" s="3" t="n">
         <v>202</v>
@@ -1026,85 +1025,90 @@
       <c r="M8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="5">
-        <f>M8/M19</f>
-        <v/>
+      <c r="N8" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>21117</v>
+        <v>21130</v>
       </c>
       <c r="S8" t="n">
         <v>202</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="13.2" customHeight="1" s="56">
       <c r="D9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3629</v>
-      </c>
-      <c r="F9" s="5">
-        <f>E9/E19</f>
-        <v/>
+        <v>2944</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>99.93%</t>
+        </is>
       </c>
       <c r="H9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>2570</v>
-      </c>
-      <c r="J9" s="5">
-        <f>I9/I19</f>
-        <v/>
+        <v>4328</v>
+      </c>
+      <c r="J9" s="5" t="inlineStr">
+        <is>
+          <t>99.79%</t>
+        </is>
       </c>
       <c r="L9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>2944</v>
-      </c>
-      <c r="N9" s="5">
-        <f>M9/M19</f>
-        <v/>
+        <v>1757</v>
+      </c>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>98.21%</t>
+        </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>21105</v>
+        <v>21129</v>
       </c>
       <c r="S9" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="13.2" customHeight="1" s="56">
       <c r="D10" s="3" t="n">
         <v>207</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
-        <f>E10/E19</f>
-        <v/>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H10" s="3" t="n">
         <v>207</v>
@@ -1112,9 +1116,10 @@
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J10" s="5">
-        <f>I10/I19</f>
-        <v/>
+      <c r="J10" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L10" s="3" t="n">
         <v>207</v>
@@ -1122,37 +1127,39 @@
       <c r="M10" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="5">
-        <f>M10/M19</f>
-        <v/>
+      <c r="N10" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>21099</v>
+        <v>21130</v>
       </c>
       <c r="S10" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="13.2" customHeight="1" s="56">
       <c r="D11" s="3" t="n">
         <v>211</v>
       </c>
       <c r="E11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <f>E11/E19</f>
-        <v/>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H11" s="3" t="n">
         <v>211</v>
@@ -1160,9 +1167,10 @@
       <c r="I11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
-        <f>I11/I19</f>
-        <v/>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L11" s="3" t="n">
         <v>211</v>
@@ -1170,85 +1178,90 @@
       <c r="M11" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="5">
-        <f>M11/M19</f>
-        <v/>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>21108</v>
+        <v>21119</v>
       </c>
       <c r="S11" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="13.2" customHeight="1" s="56">
       <c r="D12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>19</v>
-      </c>
-      <c r="F12" s="5">
-        <f>E12/E19</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J12" s="5">
-        <f>I12/I19</f>
-        <v/>
+        <v>6</v>
+      </c>
+      <c r="J12" s="5" t="inlineStr">
+        <is>
+          <t>0.14%</t>
+        </is>
       </c>
       <c r="L12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5">
-        <f>M12/M19</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="N12" s="5" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>15306</v>
+        <v>21130</v>
       </c>
       <c r="S12" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="13.2" customHeight="1" s="56">
       <c r="D13" s="3" t="n">
         <v>216</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5">
-        <f>E13/E19</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H13" s="3" t="n">
         <v>216</v>
@@ -1256,9 +1269,10 @@
       <c r="I13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="5">
-        <f>I13/I19</f>
-        <v/>
+      <c r="J13" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L13" s="3" t="n">
         <v>216</v>
@@ -1266,37 +1280,39 @@
       <c r="M13" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="5">
-        <f>M13/M19</f>
-        <v/>
+      <c r="N13" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>22306</v>
+        <v>21119</v>
       </c>
       <c r="S13" t="n">
         <v>231</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="13.2" customHeight="1" s="56">
       <c r="D14" s="3" t="n">
         <v>218</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" s="5">
-        <f>E14/E19</f>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
       </c>
       <c r="H14" s="3" t="n">
         <v>218</v>
@@ -1304,47 +1320,50 @@
       <c r="I14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="J14" s="5">
-        <f>I14/I19</f>
-        <v/>
+      <c r="J14" s="5" t="inlineStr">
+        <is>
+          <t>0.02%</t>
+        </is>
       </c>
       <c r="L14" s="3" t="n">
         <v>218</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" s="5">
-        <f>M14/M19</f>
-        <v/>
+        <v>4</v>
+      </c>
+      <c r="N14" s="5" t="inlineStr">
+        <is>
+          <t>0.22%</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S14" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="13.2" customHeight="1" s="56">
       <c r="D15" s="3" t="n">
         <v>220</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F15" s="5">
-        <f>E15/E19</f>
-        <v/>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H15" s="3" t="n">
         <v>220</v>
@@ -1352,9 +1371,10 @@
       <c r="I15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="5">
-        <f>I15/I19</f>
-        <v/>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L15" s="3" t="n">
         <v>220</v>
@@ -1362,75 +1382,90 @@
       <c r="M15" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="5">
-        <f>M15/M19</f>
-        <v/>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R15" t="n">
-        <v>12951</v>
+        <v>21130</v>
       </c>
       <c r="S15" t="n">
         <v>202</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="58">
-      <c r="D16" s="46" t="n">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="56">
+      <c r="D16" s="44" t="n">
         <v>228</v>
       </c>
       <c r="E16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F16" s="5">
-        <f>E16/E19</f>
-        <v/>
-      </c>
-      <c r="H16" s="46" t="n">
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H16" s="44" t="n">
         <v>228</v>
       </c>
       <c r="I16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="5">
-        <f>I16/I19</f>
-        <v/>
-      </c>
-      <c r="L16" s="46" t="n">
+      <c r="J16" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="L16" s="44" t="n">
         <v>228</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="5">
-        <f>M16/M19</f>
-        <v/>
+      <c r="N16" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R16" t="n">
-        <v>21098</v>
+        <v>21130</v>
       </c>
       <c r="S16" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="56">
       <c r="D17" s="3" t="n">
         <v>230</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>14</v>
-      </c>
-      <c r="F17" s="5">
-        <f>E17/E19</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H17" s="3" t="n">
         <v>230</v>
@@ -1438,42 +1473,50 @@
       <c r="I17" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="J17" s="5">
-        <f>I17/I19</f>
-        <v/>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>0.05%</t>
+        </is>
       </c>
       <c r="L17" s="3" t="n">
         <v>230</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5">
-        <f>M17/M19</f>
-        <v/>
+        <v>9</v>
+      </c>
+      <c r="N17" s="5" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R17" t="n">
-        <v>16553</v>
+        <v>21130</v>
       </c>
       <c r="S17" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="13.2" customHeight="1" s="56">
       <c r="D18" s="3" t="n">
         <v>231</v>
       </c>
       <c r="E18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="5">
-        <f>E18/E19</f>
-        <v/>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H18" s="3" t="n">
         <v>231</v>
@@ -1481,9 +1524,10 @@
       <c r="I18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J18" s="5">
-        <f>I18/I19</f>
-        <v/>
+      <c r="J18" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L18" s="3" t="n">
         <v>231</v>
@@ -1491,135 +1535,161 @@
       <c r="M18" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="5">
-        <f>M18/M19</f>
-        <v/>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R18" t="n">
-        <v>21098</v>
+        <v>21129</v>
       </c>
       <c r="S18" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="13.2" customHeight="1" s="56">
       <c r="D19" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="E19" s="6">
-        <f>SUM(E5:E18)</f>
-        <v/>
-      </c>
-      <c r="F19" s="5">
-        <f>SUM(F5:F18)</f>
-        <v/>
+      <c r="E19" s="6" t="n">
+        <v>2946</v>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="H19" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="I19" s="6">
-        <f>SUM(I5:I18)</f>
-        <v/>
-      </c>
-      <c r="J19" s="5">
-        <f>SUM(J5:J18)</f>
-        <v/>
+      <c r="I19" s="6" t="n">
+        <v>4337</v>
+      </c>
+      <c r="J19" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="M19" s="6">
-        <f>SUM(M5:M18)</f>
-        <v/>
-      </c>
-      <c r="N19" s="5">
-        <f>SUM(N5:N18)</f>
-        <v/>
+      <c r="M19" s="6" t="n">
+        <v>1789</v>
+      </c>
+      <c r="N19" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R19" t="n">
-        <v>16579</v>
+        <v>21130</v>
       </c>
       <c r="S19" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="13.2" customHeight="1" s="56">
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R20" t="n">
-        <v>16587</v>
+        <v>21130</v>
       </c>
       <c r="S20" t="n">
         <v>202</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="13.2" customHeight="1" s="56">
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R21" t="n">
-        <v>12980</v>
+        <v>16549</v>
       </c>
       <c r="S21" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="13.2" customHeight="1" s="58">
-      <c r="D22" s="63" t="inlineStr">
-        <is>
-          <t>01-18-2024</t>
-        </is>
-      </c>
-      <c r="E22" s="64" t="n"/>
-      <c r="F22" s="65" t="n"/>
-      <c r="H22" s="63" t="inlineStr">
-        <is>
-          <t>01-19-2024</t>
-        </is>
-      </c>
-      <c r="I22" s="64" t="n"/>
-      <c r="J22" s="65" t="n"/>
-      <c r="L22" s="63" t="inlineStr">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="13.2" customHeight="1" s="56">
+      <c r="D22" s="61" t="inlineStr">
         <is>
           <t>01-20-2024</t>
         </is>
       </c>
-      <c r="M22" s="64" t="n"/>
-      <c r="N22" s="65" t="n"/>
+      <c r="E22" s="62" t="n"/>
+      <c r="F22" s="63" t="n"/>
+      <c r="H22" s="61" t="inlineStr">
+        <is>
+          <t>01-21-2024</t>
+        </is>
+      </c>
+      <c r="I22" s="62" t="n"/>
+      <c r="J22" s="63" t="n"/>
+      <c r="L22" s="61" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
+      <c r="M22" s="62" t="n"/>
+      <c r="N22" s="63" t="n"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R22" t="n">
-        <v>21099</v>
+        <v>21130</v>
       </c>
       <c r="S22" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="13.2" customHeight="1" s="56">
       <c r="D23" s="1" t="inlineStr">
         <is>
           <t>Pakg Status</t>
@@ -1665,157 +1735,187 @@
           <t>Total Rate</t>
         </is>
       </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R23" t="n">
-        <v>12963</v>
+        <v>21130</v>
       </c>
       <c r="S23" t="n">
         <v>202</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="13.2" customHeight="1" s="56">
       <c r="D24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="E24" s="42" t="n">
-        <v>33</v>
-      </c>
-      <c r="F24" s="43">
-        <f>E24/E38</f>
-        <v/>
+        <v>35</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
       </c>
       <c r="H24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="I24" s="42" t="n">
-        <v>6</v>
-      </c>
-      <c r="J24" s="43">
-        <f>I24/I38</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="M24" s="42" t="n">
-        <v>81</v>
-      </c>
-      <c r="N24" s="43">
-        <f>M24/M38</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="N24" s="5" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R24" t="n">
-        <v>20556</v>
+        <v>21130</v>
       </c>
       <c r="S24" t="n">
+        <v>202</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="13.2" customHeight="1" s="56">
+      <c r="D25" s="43" t="n">
+        <v>199</v>
+      </c>
+      <c r="E25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H25" s="43" t="n">
+        <v>199</v>
+      </c>
+      <c r="I25" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>0.07%</t>
+        </is>
+      </c>
+      <c r="L25" s="43" t="n">
+        <v>199</v>
+      </c>
+      <c r="M25" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>21119</v>
+      </c>
+      <c r="S25" t="n">
         <v>231</v>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="13.2" customHeight="1" s="58">
-      <c r="D25" s="44" t="n">
-        <v>199</v>
-      </c>
-      <c r="E25" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" s="45">
-        <f>E25/E38</f>
-        <v/>
-      </c>
-      <c r="H25" s="44" t="n">
-        <v>199</v>
-      </c>
-      <c r="I25" s="44" t="n">
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="13.2" customHeight="1" s="56">
+      <c r="D26" s="43" t="n">
+        <v>200</v>
+      </c>
+      <c r="E26" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="J25" s="45">
-        <f>I25/I38</f>
-        <v/>
-      </c>
-      <c r="L25" s="44" t="n">
-        <v>199</v>
-      </c>
-      <c r="M25" s="44" t="n">
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H26" s="43" t="n">
+        <v>200</v>
+      </c>
+      <c r="I26" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="N25" s="45">
-        <f>M25/M38</f>
-        <v/>
-      </c>
-      <c r="R25" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S25" t="n">
-        <v>202</v>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="13.2" customHeight="1" s="58">
-      <c r="D26" s="44" t="n">
+      <c r="J26" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="L26" s="43" t="n">
         <v>200</v>
       </c>
-      <c r="E26" s="44" t="n">
+      <c r="M26" s="43" t="n">
         <v>0</v>
       </c>
-      <c r="F26" s="45">
-        <f>E26/E38</f>
-        <v/>
-      </c>
-      <c r="H26" s="44" t="n">
-        <v>200</v>
-      </c>
-      <c r="I26" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="45">
-        <f>I26/I38</f>
-        <v/>
-      </c>
-      <c r="L26" s="44" t="n">
-        <v>200</v>
-      </c>
-      <c r="M26" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="45">
-        <f>M26/M38</f>
-        <v/>
+      <c r="N26" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R26" t="n">
-        <v>12983</v>
+        <v>21130</v>
       </c>
       <c r="S26" t="n">
         <v>202</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="13.2" customHeight="1" s="56">
       <c r="D27" s="3" t="n">
         <v>202</v>
       </c>
       <c r="E27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="5">
-        <f>E27/E38</f>
-        <v/>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H27" s="3" t="n">
         <v>202</v>
@@ -1823,85 +1923,101 @@
       <c r="I27" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J27" s="5">
-        <f>I27/I38</f>
-        <v/>
+      <c r="J27" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L27" s="3" t="n">
         <v>202</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N27" s="5">
-        <f>M27/M38</f>
-        <v/>
+        <v>29</v>
+      </c>
+      <c r="N27" s="5" t="inlineStr">
+        <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R27" t="n">
-        <v>16579</v>
+        <v>21130</v>
       </c>
       <c r="S27" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="13.2" customHeight="1" s="56">
       <c r="D28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>4329</v>
-      </c>
-      <c r="F28" s="5">
-        <f>E28/E38</f>
-        <v/>
+        <v>3185</v>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>98.36%</t>
+        </is>
       </c>
       <c r="H28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>1757</v>
-      </c>
-      <c r="J28" s="5">
-        <f>I28/I38</f>
-        <v/>
+        <v>2895</v>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>98.74%</t>
+        </is>
       </c>
       <c r="L28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>3186</v>
-      </c>
-      <c r="N28" s="5">
-        <f>M28/M38</f>
-        <v/>
+        <v>3278</v>
+      </c>
+      <c r="N28" s="5" t="inlineStr">
+        <is>
+          <t>97.76%</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R28" t="n">
-        <v>15287</v>
+        <v>12990</v>
       </c>
       <c r="S28" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="29" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="13.2" customHeight="1" s="56">
       <c r="D29" s="3" t="n">
         <v>207</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F29" s="5">
-        <f>E29/E38</f>
-        <v/>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H29" s="3" t="n">
         <v>207</v>
@@ -1909,9 +2025,10 @@
       <c r="I29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J29" s="5">
-        <f>I29/I38</f>
-        <v/>
+      <c r="J29" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L29" s="3" t="n">
         <v>207</v>
@@ -1919,32 +2036,39 @@
       <c r="M29" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N29" s="5">
-        <f>M29/M38</f>
-        <v/>
+      <c r="N29" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R29" t="n">
-        <v>12949</v>
+        <v>21130</v>
       </c>
       <c r="S29" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="13.2" customHeight="1" s="56">
       <c r="D30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="E30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F30" s="5">
-        <f>E30/E38</f>
-        <v/>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H30" s="3" t="n">
         <v>211</v>
@@ -1952,85 +2076,101 @@
       <c r="I30" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J30" s="5">
-        <f>I30/I38</f>
-        <v/>
+      <c r="J30" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N30" s="5">
-        <f>M30/M38</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R30" t="n">
-        <v>16587</v>
+        <v>21130</v>
       </c>
       <c r="S30" t="n">
         <v>202</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="13.2" customHeight="1" s="56">
       <c r="D31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="5">
-        <f>E31/E38</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>0.31%</t>
+        </is>
       </c>
       <c r="H31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>18</v>
-      </c>
-      <c r="J31" s="5">
-        <f>I31/I38</f>
-        <v/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="5" t="inlineStr">
+        <is>
+          <t>0.34%</t>
+        </is>
       </c>
       <c r="L31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>17</v>
-      </c>
-      <c r="N31" s="5">
-        <f>M31/M38</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="N31" s="5" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R31" t="n">
-        <v>16579</v>
+        <v>21130</v>
       </c>
       <c r="S31" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="13.2" customHeight="1" s="56">
       <c r="D32" s="3" t="n">
         <v>216</v>
       </c>
       <c r="E32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F32" s="5">
-        <f>E32/E38</f>
-        <v/>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H32" s="3" t="n">
         <v>216</v>
@@ -2038,9 +2178,10 @@
       <c r="I32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J32" s="5">
-        <f>I32/I38</f>
-        <v/>
+      <c r="J32" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L32" s="3" t="n">
         <v>216</v>
@@ -2048,75 +2189,90 @@
       <c r="M32" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N32" s="5">
-        <f>M32/M38</f>
-        <v/>
+      <c r="N32" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R32" t="n">
-        <v>16587</v>
+        <v>21119</v>
       </c>
       <c r="S32" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" s="56">
       <c r="D33" s="3" t="n">
         <v>218</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F33" s="5">
-        <f>E33/E38</f>
-        <v/>
+        <v>3</v>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>0.09%</t>
+        </is>
       </c>
       <c r="H33" s="3" t="n">
         <v>218</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J33" s="5">
-        <f>I33/I38</f>
-        <v/>
+        <v>18</v>
+      </c>
+      <c r="J33" s="5" t="inlineStr">
+        <is>
+          <t>0.61%</t>
+        </is>
       </c>
       <c r="L33" s="3" t="n">
         <v>218</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5">
-        <f>M33/M38</f>
-        <v/>
+        <v>7</v>
+      </c>
+      <c r="N33" s="5" t="inlineStr">
+        <is>
+          <t>0.21%</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R33" t="n">
-        <v>15295</v>
+        <v>21119</v>
       </c>
       <c r="S33" t="n">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" s="56">
       <c r="D34" s="3" t="n">
         <v>220</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="F34" s="5">
-        <f>E34/E38</f>
-        <v/>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H34" s="3" t="n">
         <v>220</v>
@@ -2124,9 +2280,10 @@
       <c r="I34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="J34" s="5">
-        <f>I34/I38</f>
-        <v/>
+      <c r="J34" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L34" s="3" t="n">
         <v>220</v>
@@ -2134,118 +2291,141 @@
       <c r="M34" s="6" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="5">
-        <f>M34/M38</f>
-        <v/>
+      <c r="N34" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R34" t="n">
-        <v>12961</v>
+        <v>21119</v>
       </c>
       <c r="S34" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1" s="58">
-      <c r="D35" s="46" t="n">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" s="56">
+      <c r="D35" s="44" t="n">
         <v>228</v>
       </c>
       <c r="E35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F35" s="5">
-        <f>E35/E38</f>
-        <v/>
-      </c>
-      <c r="H35" s="46" t="n">
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="H35" s="44" t="n">
         <v>228</v>
       </c>
       <c r="I35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J35" s="5">
-        <f>I35/I38</f>
-        <v/>
-      </c>
-      <c r="L35" s="46" t="n">
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="L35" s="44" t="n">
         <v>228</v>
       </c>
       <c r="M35" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="5">
-        <f>M35/M38</f>
-        <v/>
+      <c r="N35" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R35" t="n">
-        <v>15295</v>
+        <v>21130</v>
       </c>
       <c r="S35" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" s="56">
       <c r="D36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F36" s="5">
-        <f>E36/E38</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>0.15%</t>
+        </is>
       </c>
       <c r="H36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" s="5">
-        <f>I36/I38</f>
-        <v/>
+        <v>7</v>
+      </c>
+      <c r="J36" s="5" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
       </c>
       <c r="L36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N36" s="5">
-        <f>M36/M38</f>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R36" t="n">
-        <v>16587</v>
+        <v>21119</v>
       </c>
       <c r="S36" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" s="56">
       <c r="D37" s="3" t="n">
         <v>231</v>
       </c>
       <c r="E37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="F37" s="5">
-        <f>E37/E38</f>
-        <v/>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="H37" s="3" t="n">
         <v>231</v>
@@ -2253,2961 +2433,293 @@
       <c r="I37" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="J37" s="5">
-        <f>I37/I38</f>
-        <v/>
+      <c r="J37" s="5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
       <c r="L37" s="3" t="n">
         <v>231</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" s="5">
-        <f>M37/M38</f>
-        <v/>
+        <v>13</v>
+      </c>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R37" t="n">
-        <v>20557</v>
+        <v>21130</v>
       </c>
       <c r="S37" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="38" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="13.2" customHeight="1" s="56">
       <c r="D38" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="E38" s="6">
-        <f>SUM(E24:E37)</f>
-        <v/>
-      </c>
-      <c r="F38" s="5">
-        <f>SUM(F24:F37)</f>
-        <v/>
+      <c r="E38" s="6" t="n">
+        <v>3238</v>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="H38" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="I38" s="6">
-        <f>SUM(I24:I37)</f>
-        <v/>
-      </c>
-      <c r="J38" s="5">
-        <f>SUM(J24:J37)</f>
-        <v/>
+      <c r="I38" s="6" t="n">
+        <v>2932</v>
+      </c>
+      <c r="J38" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
         </is>
       </c>
-      <c r="M38" s="6">
-        <f>SUM(M24:M37)</f>
-        <v/>
-      </c>
-      <c r="N38" s="5">
-        <f>SUM(N24:N37)</f>
-        <v/>
+      <c r="M38" s="6" t="n">
+        <v>3353</v>
+      </c>
+      <c r="N38" s="5" t="inlineStr">
+        <is>
+          <t>100.00%</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
       </c>
       <c r="R38" t="n">
-        <v>12961</v>
+        <v>21130</v>
       </c>
       <c r="S38" t="n">
         <v>202</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="39" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="39" ht="13.2" customHeight="1" s="56">
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R39" t="n">
-        <v>16587</v>
+        <v>21129</v>
       </c>
       <c r="S39" t="n">
         <v>202</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="13.2" customHeight="1" s="56">
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R40" t="n">
-        <v>12961</v>
+        <v>21129</v>
       </c>
       <c r="S40" t="n">
         <v>202</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="41" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="41" ht="13.2" customHeight="1" s="56">
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R41" t="n">
-        <v>12983</v>
+        <v>21119</v>
       </c>
       <c r="S41" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="42" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="13.2" customHeight="1" s="56">
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R42" t="n">
-        <v>15297</v>
+        <v>21119</v>
       </c>
       <c r="S42" t="n">
         <v>231</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="43" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="43" ht="13.2" customHeight="1" s="56">
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R43" t="n">
-        <v>12983</v>
+        <v>21130</v>
       </c>
       <c r="S43" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="44" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" ht="13.2" customHeight="1" s="56">
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R44" t="n">
-        <v>20557</v>
+        <v>21119</v>
       </c>
       <c r="S44" t="n">
         <v>231</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="45" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="45" ht="13.2" customHeight="1" s="56">
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R45" t="n">
-        <v>12980</v>
+        <v>21130</v>
       </c>
       <c r="S45" t="n">
         <v>202</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="46" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" ht="13.2" customHeight="1" s="56">
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>01-22-2024</t>
+        </is>
+      </c>
       <c r="R46" t="n">
-        <v>16587</v>
+        <v>21130</v>
       </c>
       <c r="S46" t="n">
         <v>202</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="13.2" customHeight="1" s="58">
-      <c r="R47" t="n">
-        <v>20555</v>
-      </c>
-      <c r="S47" t="n">
-        <v>231</v>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="48" ht="13.2" customHeight="1" s="58">
-      <c r="R48" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S48" t="n">
-        <v>211</v>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="49" ht="13.2" customHeight="1" s="58">
-      <c r="R49" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S49" t="n">
-        <v>202</v>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="13.2" customHeight="1" s="58">
-      <c r="R50" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S50" t="n">
-        <v>202</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="13.2" customHeight="1" s="58">
-      <c r="R51" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S51" t="n">
-        <v>202</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="13.2" customHeight="1" s="58">
-      <c r="R52" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S52" t="n">
-        <v>202</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="13.2" customHeight="1" s="58">
-      <c r="R53" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S53" t="n">
-        <v>202</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="R54" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S54" t="n">
-        <v>202</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="13.2" customHeight="1" s="58">
-      <c r="R55" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S55" t="n">
-        <v>202</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="13.2" customHeight="1" s="58">
-      <c r="R56" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S56" t="n">
-        <v>202</v>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="13.2" customHeight="1" s="58">
-      <c r="R57" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S57" t="n">
-        <v>202</v>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="13.2" customHeight="1" s="58">
-      <c r="R58" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S58" t="n">
-        <v>202</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="13.2" customHeight="1" s="58">
-      <c r="R59" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S59" t="n">
-        <v>202</v>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="13.2" customHeight="1" s="58">
-      <c r="R60" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S60" t="n">
-        <v>202</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="13.2" customHeight="1" s="58">
-      <c r="R61" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S61" t="n">
-        <v>202</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="13.2" customHeight="1" s="58">
-      <c r="R62" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S62" t="n">
-        <v>202</v>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="13.2" customHeight="1" s="58">
-      <c r="R63" t="n">
-        <v>21090</v>
-      </c>
-      <c r="S63" t="n">
-        <v>211</v>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="13.2" customHeight="1" s="58">
-      <c r="R64" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S64" t="n">
-        <v>202</v>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="13.2" customHeight="1" s="58">
-      <c r="R65" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S65" t="n">
-        <v>202</v>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="13.2" customHeight="1" s="58">
-      <c r="R66" t="n">
-        <v>22303</v>
-      </c>
-      <c r="S66" t="n">
-        <v>211</v>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="13.2" customHeight="1" s="58">
-      <c r="R67" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S67" t="n">
-        <v>202</v>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="13.2" customHeight="1" s="58">
-      <c r="R68" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S68" t="n">
-        <v>202</v>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="13.2" customHeight="1" s="58">
-      <c r="R69" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S69" t="n">
-        <v>202</v>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="R70" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S70" t="n">
-        <v>211</v>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="R71" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S71" t="n">
-        <v>231</v>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="R72" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S72" t="n">
-        <v>202</v>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="13.2" customHeight="1" s="58">
-      <c r="R73" t="n">
-        <v>16549</v>
-      </c>
-      <c r="S73" t="n">
-        <v>211</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="13.2" customHeight="1" s="58">
-      <c r="R74" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S74" t="n">
-        <v>202</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="13.2" customHeight="1" s="58">
-      <c r="R75" t="n">
-        <v>21098</v>
-      </c>
-      <c r="S75" t="n">
-        <v>211</v>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="13.2" customHeight="1" s="58">
-      <c r="R76" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S76" t="n">
-        <v>202</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="13.2" customHeight="1" s="58">
-      <c r="R77" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S77" t="n">
-        <v>202</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="13.2" customHeight="1" s="58">
-      <c r="R78" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S78" t="n">
-        <v>202</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="13.2" customHeight="1" s="58">
-      <c r="R79" t="n">
-        <v>16579</v>
-      </c>
-      <c r="S79" t="n">
-        <v>231</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="13.2" customHeight="1" s="58">
-      <c r="R80" t="n">
-        <v>16579</v>
-      </c>
-      <c r="S80" t="n">
-        <v>231</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="13.2" customHeight="1" s="58">
-      <c r="R81" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S81" t="n">
-        <v>202</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="13.2" customHeight="1" s="58">
-      <c r="R82" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S82" t="n">
-        <v>211</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="13.2" customHeight="1" s="58">
-      <c r="R83" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S83" t="n">
-        <v>202</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="84" ht="13.2" customHeight="1" s="58">
+          <t>PHX-YE-20240120</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="13.2" customHeight="1" s="56"/>
+    <row r="48" ht="13.2" customHeight="1" s="56"/>
+    <row r="49" ht="13.2" customHeight="1" s="56"/>
+    <row r="50" ht="13.2" customHeight="1" s="56"/>
+    <row r="51" ht="13.2" customHeight="1" s="56"/>
+    <row r="52" ht="13.2" customHeight="1" s="56"/>
+    <row r="53" ht="13.2" customHeight="1" s="56"/>
+    <row r="55" ht="13.2" customHeight="1" s="56"/>
+    <row r="56" ht="13.2" customHeight="1" s="56"/>
+    <row r="57" ht="13.2" customHeight="1" s="56"/>
+    <row r="58" ht="13.2" customHeight="1" s="56"/>
+    <row r="59" ht="13.2" customHeight="1" s="56"/>
+    <row r="60" ht="13.2" customHeight="1" s="56"/>
+    <row r="61" ht="13.2" customHeight="1" s="56"/>
+    <row r="62" ht="13.2" customHeight="1" s="56"/>
+    <row r="63" ht="13.2" customHeight="1" s="56"/>
+    <row r="64" ht="13.2" customHeight="1" s="56"/>
+    <row r="65" ht="13.2" customHeight="1" s="56"/>
+    <row r="66" ht="13.2" customHeight="1" s="56"/>
+    <row r="67" ht="13.2" customHeight="1" s="56"/>
+    <row r="68" ht="13.2" customHeight="1" s="56"/>
+    <row r="69" ht="13.2" customHeight="1" s="56"/>
+    <row r="73" ht="13.2" customHeight="1" s="56"/>
+    <row r="74" ht="13.2" customHeight="1" s="56"/>
+    <row r="75" ht="13.2" customHeight="1" s="56"/>
+    <row r="76" ht="13.2" customHeight="1" s="56"/>
+    <row r="77" ht="13.2" customHeight="1" s="56"/>
+    <row r="78" ht="13.2" customHeight="1" s="56"/>
+    <row r="79" ht="13.2" customHeight="1" s="56"/>
+    <row r="80" ht="13.2" customHeight="1" s="56"/>
+    <row r="81" ht="13.2" customHeight="1" s="56"/>
+    <row r="82" ht="13.2" customHeight="1" s="56"/>
+    <row r="83" ht="13.2" customHeight="1" s="56"/>
+    <row r="84" ht="13.2" customHeight="1" s="56">
       <c r="A84" s="8" t="n"/>
-      <c r="R84" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S84" t="n">
-        <v>202</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="85" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="85" ht="13.2" customHeight="1" s="56">
       <c r="A85" s="8" t="n"/>
-      <c r="R85" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S85" t="n">
-        <v>202</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="86" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="86" ht="13.2" customHeight="1" s="56">
       <c r="A86" s="8" t="n"/>
-      <c r="R86" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S86" t="n">
-        <v>202</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="87" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="87" ht="13.2" customHeight="1" s="56">
       <c r="A87" s="8" t="n"/>
-      <c r="R87" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S87" t="n">
-        <v>202</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="88" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="88" ht="13.2" customHeight="1" s="56">
       <c r="A88" s="8" t="n"/>
-      <c r="R88" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S88" t="n">
-        <v>202</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="89" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="89" ht="13.2" customHeight="1" s="56">
       <c r="A89" s="8" t="n"/>
-      <c r="R89" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S89" t="n">
-        <v>202</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="90" ht="13.2" customHeight="1" s="58">
+    </row>
+    <row r="90" ht="13.2" customHeight="1" s="56">
       <c r="A90" s="8" t="n"/>
-      <c r="R90" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S90" t="n">
-        <v>202</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="R91" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S91" t="n">
-        <v>202</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="R92" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S92" t="n">
-        <v>202</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="R93" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S93" t="n">
-        <v>202</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="R94" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S94" t="n">
-        <v>231</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="R95" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S95" t="n">
-        <v>231</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="R96" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S96" t="n">
-        <v>211</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="R97" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S97" t="n">
-        <v>211</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="R98" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S98" t="n">
-        <v>202</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="R99" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S99" t="n">
-        <v>202</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="R100" t="n">
-        <v>15305</v>
-      </c>
-      <c r="S100" t="n">
-        <v>231</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="R101" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S101" t="n">
-        <v>202</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="R102" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S102" t="n">
-        <v>202</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="R103" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S103" t="n">
-        <v>202</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="R104" t="n">
-        <v>20555</v>
-      </c>
-      <c r="S104" t="n">
-        <v>211</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="R105" t="n">
-        <v>15297</v>
-      </c>
-      <c r="S105" t="n">
-        <v>231</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="R106" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S106" t="n">
-        <v>211</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="R107" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S107" t="n">
-        <v>202</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="R108" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S108" t="n">
-        <v>202</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="R109" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S109" t="n">
-        <v>202</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="R110" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S110" t="n">
-        <v>202</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="R111" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S111" t="n">
-        <v>202</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="R112" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S112" t="n">
-        <v>202</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="R113" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S113" t="n">
-        <v>202</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="R114" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S114" t="n">
-        <v>202</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="R115" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S115" t="n">
-        <v>202</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="R116" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S116" t="n">
-        <v>202</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="R117" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S117" t="n">
-        <v>202</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="R118" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S118" t="n">
-        <v>202</v>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="R119" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S119" t="n">
-        <v>202</v>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="R120" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S120" t="n">
-        <v>202</v>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="R121" t="n">
-        <v>21098</v>
-      </c>
-      <c r="S121" t="n">
-        <v>211</v>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="R122" t="n">
-        <v>15295</v>
-      </c>
-      <c r="S122" t="n">
-        <v>211</v>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="R123" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S123" t="n">
-        <v>202</v>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="R124" t="n">
-        <v>15295</v>
-      </c>
-      <c r="S124" t="n">
-        <v>211</v>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="R125" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S125" t="n">
-        <v>202</v>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="R126" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S126" t="n">
-        <v>202</v>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="R127" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S127" t="n">
-        <v>202</v>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="R128" t="n">
-        <v>16549</v>
-      </c>
-      <c r="S128" t="n">
-        <v>202</v>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="R129" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S129" t="n">
-        <v>202</v>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="R130" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S130" t="n">
-        <v>202</v>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="R131" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S131" t="n">
-        <v>211</v>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="R132" t="n">
-        <v>21098</v>
-      </c>
-      <c r="S132" t="n">
-        <v>211</v>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="R133" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S133" t="n">
-        <v>202</v>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="R134" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S134" t="n">
-        <v>202</v>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="R135" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S135" t="n">
-        <v>202</v>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="R136" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S136" t="n">
-        <v>202</v>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="R137" t="n">
-        <v>21110</v>
-      </c>
-      <c r="S137" t="n">
-        <v>202</v>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="R138" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S138" t="n">
-        <v>202</v>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="R139" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S139" t="n">
-        <v>202</v>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="R140" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S140" t="n">
-        <v>202</v>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="R141" t="n">
-        <v>20555</v>
-      </c>
-      <c r="S141" t="n">
-        <v>231</v>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="R142" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S142" t="n">
-        <v>211</v>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="R143" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S143" t="n">
-        <v>202</v>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="R144" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S144" t="n">
-        <v>202</v>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="R145" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S145" t="n">
-        <v>202</v>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="R146" t="n">
-        <v>15297</v>
-      </c>
-      <c r="S146" t="n">
-        <v>211</v>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="R147" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S147" t="n">
-        <v>202</v>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="R148" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S148" t="n">
-        <v>202</v>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="R149" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S149" t="n">
-        <v>202</v>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="R150" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S150" t="n">
-        <v>202</v>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="R151" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S151" t="n">
-        <v>202</v>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="R152" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S152" t="n">
-        <v>202</v>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="R153" t="n">
-        <v>22303</v>
-      </c>
-      <c r="S153" t="n">
-        <v>211</v>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="R154" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S154" t="n">
-        <v>202</v>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="R155" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S155" t="n">
-        <v>202</v>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="R156" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S156" t="n">
-        <v>202</v>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="R157" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S157" t="n">
-        <v>202</v>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="R158" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S158" t="n">
-        <v>202</v>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="R159" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S159" t="n">
-        <v>202</v>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="R160" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S160" t="n">
-        <v>202</v>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="R161" t="n">
-        <v>12949</v>
-      </c>
-      <c r="S161" t="n">
-        <v>202</v>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="R162" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S162" t="n">
-        <v>202</v>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="R163" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S163" t="n">
-        <v>202</v>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="R164" t="n">
-        <v>12949</v>
-      </c>
-      <c r="S164" t="n">
-        <v>202</v>
-      </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="R165" t="n">
-        <v>21098</v>
-      </c>
-      <c r="S165" t="n">
-        <v>211</v>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="R166" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S166" t="n">
-        <v>202</v>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="R167" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S167" t="n">
-        <v>202</v>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="R168" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S168" t="n">
-        <v>202</v>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="R169" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S169" t="n">
-        <v>211</v>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="R170" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S170" t="n">
-        <v>202</v>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="R171" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S171" t="n">
-        <v>202</v>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="R172" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S172" t="n">
-        <v>202</v>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="R173" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S173" t="n">
-        <v>202</v>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="R174" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S174" t="n">
-        <v>231</v>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="R175" t="n">
-        <v>21098</v>
-      </c>
-      <c r="S175" t="n">
-        <v>211</v>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="R176" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S176" t="n">
-        <v>202</v>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="R177" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S177" t="n">
-        <v>202</v>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="R178" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S178" t="n">
-        <v>202</v>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="R179" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S179" t="n">
-        <v>211</v>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="R180" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S180" t="n">
-        <v>231</v>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="R181" t="n">
-        <v>12957</v>
-      </c>
-      <c r="S181" t="n">
-        <v>231</v>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="R182" t="n">
-        <v>16549</v>
-      </c>
-      <c r="S182" t="n">
-        <v>202</v>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="R183" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S183" t="n">
-        <v>202</v>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="R184" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S184" t="n">
-        <v>202</v>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="R185" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S185" t="n">
-        <v>202</v>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="R186" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S186" t="n">
-        <v>202</v>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="R187" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S187" t="n">
-        <v>202</v>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="R188" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S188" t="n">
-        <v>202</v>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="R189" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S189" t="n">
-        <v>202</v>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="R190" t="n">
-        <v>15295</v>
-      </c>
-      <c r="S190" t="n">
-        <v>211</v>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="R191" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S191" t="n">
-        <v>211</v>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="R192" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S192" t="n">
-        <v>211</v>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="R193" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S193" t="n">
-        <v>202</v>
-      </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="R194" t="n">
-        <v>12957</v>
-      </c>
-      <c r="S194" t="n">
-        <v>202</v>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="R195" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S195" t="n">
-        <v>202</v>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="R196" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S196" t="n">
-        <v>202</v>
-      </c>
-      <c r="T196" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="R197" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S197" t="n">
-        <v>211</v>
-      </c>
-      <c r="T197" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="R198" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S198" t="n">
-        <v>202</v>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="R199" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S199" t="n">
-        <v>202</v>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="R200" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S200" t="n">
-        <v>202</v>
-      </c>
-      <c r="T200" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="R201" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S201" t="n">
-        <v>231</v>
-      </c>
-      <c r="T201" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="R202" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S202" t="n">
-        <v>202</v>
-      </c>
-      <c r="T202" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="R203" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S203" t="n">
-        <v>202</v>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="R204" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S204" t="n">
-        <v>202</v>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="R205" t="n">
-        <v>12980</v>
-      </c>
-      <c r="S205" t="n">
-        <v>202</v>
-      </c>
-      <c r="T205" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="R206" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S206" t="n">
-        <v>211</v>
-      </c>
-      <c r="T206" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="R207" t="n">
-        <v>12949</v>
-      </c>
-      <c r="S207" t="n">
-        <v>202</v>
-      </c>
-      <c r="T207" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="R208" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S208" t="n">
-        <v>202</v>
-      </c>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="R209" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S209" t="n">
-        <v>202</v>
-      </c>
-      <c r="T209" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="R210" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S210" t="n">
-        <v>211</v>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="R211" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S211" t="n">
-        <v>202</v>
-      </c>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="R212" t="n">
-        <v>16549</v>
-      </c>
-      <c r="S212" t="n">
-        <v>231</v>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="R213" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S213" t="n">
-        <v>202</v>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="R214" t="n">
-        <v>22305</v>
-      </c>
-      <c r="S214" t="n">
-        <v>231</v>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="R215" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S215" t="n">
-        <v>202</v>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="R216" t="n">
-        <v>12983</v>
-      </c>
-      <c r="S216" t="n">
-        <v>202</v>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="R217" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S217" t="n">
-        <v>202</v>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="R218" t="n">
-        <v>21110</v>
-      </c>
-      <c r="S218" t="n">
-        <v>202</v>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="R219" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S219" t="n">
-        <v>202</v>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="R220" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S220" t="n">
-        <v>211</v>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="R221" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S221" t="n">
-        <v>202</v>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="R222" t="n">
-        <v>22306</v>
-      </c>
-      <c r="S222" t="n">
-        <v>231</v>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="R223" t="n">
-        <v>22305</v>
-      </c>
-      <c r="S223" t="n">
-        <v>231</v>
-      </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="R224" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S224" t="n">
-        <v>202</v>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="R225" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S225" t="n">
-        <v>202</v>
-      </c>
-      <c r="T225" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="R226" t="n">
-        <v>21090</v>
-      </c>
-      <c r="S226" t="n">
-        <v>211</v>
-      </c>
-      <c r="T226" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="R227" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S227" t="n">
-        <v>202</v>
-      </c>
-      <c r="T227" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="R228" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S228" t="n">
-        <v>202</v>
-      </c>
-      <c r="T228" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="R229" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S229" t="n">
-        <v>202</v>
-      </c>
-      <c r="T229" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="R230" t="n">
-        <v>20555</v>
-      </c>
-      <c r="S230" t="n">
-        <v>231</v>
-      </c>
-      <c r="T230" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="R231" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S231" t="n">
-        <v>202</v>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="R232" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S232" t="n">
-        <v>202</v>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="R233" t="n">
-        <v>21110</v>
-      </c>
-      <c r="S233" t="n">
-        <v>202</v>
-      </c>
-      <c r="T233" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="R234" t="n">
-        <v>21115</v>
-      </c>
-      <c r="S234" t="n">
-        <v>211</v>
-      </c>
-      <c r="T234" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="R235" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S235" t="n">
-        <v>202</v>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="R236" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S236" t="n">
-        <v>202</v>
-      </c>
-      <c r="T236" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="R237" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S237" t="n">
-        <v>202</v>
-      </c>
-      <c r="T237" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="R238" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S238" t="n">
-        <v>202</v>
-      </c>
-      <c r="T238" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="R239" t="n">
-        <v>16587</v>
-      </c>
-      <c r="S239" t="n">
-        <v>202</v>
-      </c>
-      <c r="T239" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="R240" t="n">
-        <v>21110</v>
-      </c>
-      <c r="S240" t="n">
-        <v>202</v>
-      </c>
-      <c r="T240" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="R241" t="n">
-        <v>22305</v>
-      </c>
-      <c r="S241" t="n">
-        <v>231</v>
-      </c>
-      <c r="T241" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="R242" t="n">
-        <v>12963</v>
-      </c>
-      <c r="S242" t="n">
-        <v>202</v>
-      </c>
-      <c r="T242" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="R243" t="n">
-        <v>12976</v>
-      </c>
-      <c r="S243" t="n">
-        <v>211</v>
-      </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="R244" t="n">
-        <v>12951</v>
-      </c>
-      <c r="S244" t="n">
-        <v>202</v>
-      </c>
-      <c r="T244" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="R245" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S245" t="n">
-        <v>231</v>
-      </c>
-      <c r="T245" t="inlineStr">
-        <is>
-          <t>PHSUB-202401191119</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="Q246" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R246" t="n">
-        <v>160992</v>
-      </c>
-      <c r="S246" t="n">
-        <v>202</v>
-      </c>
-      <c r="T246" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="Q247" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R247" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S247" t="n">
-        <v>211</v>
-      </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R248" t="n">
-        <v>22306</v>
-      </c>
-      <c r="S248" t="n">
-        <v>231</v>
-      </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="Q249" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R249" t="n">
-        <v>21117</v>
-      </c>
-      <c r="S249" t="n">
-        <v>202</v>
-      </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="Q250" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R250" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S250" t="n">
-        <v>231</v>
-      </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="Q251" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R251" t="n">
-        <v>21099</v>
-      </c>
-      <c r="S251" t="n">
-        <v>211</v>
-      </c>
-      <c r="T251" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="Q252" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R252" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S252" t="n">
-        <v>202</v>
-      </c>
-      <c r="T252" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R253" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S253" t="n">
-        <v>211</v>
-      </c>
-      <c r="T253" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R254" t="n">
-        <v>22306</v>
-      </c>
-      <c r="S254" t="n">
-        <v>231</v>
-      </c>
-      <c r="T254" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="Q255" t="inlineStr">
-        <is>
-          <t>01-20-2024</t>
-        </is>
-      </c>
-      <c r="R255" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S255" t="n">
-        <v>211</v>
-      </c>
-      <c r="T255" t="inlineStr">
-        <is>
-          <t>PHSUB-202401181052</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5238,10 +2750,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="15.6640625" customWidth="1" style="58" min="4" max="4"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="15.6640625" customWidth="1" style="56" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5476,7 +2988,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="16.33203125" customWidth="1" style="58" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5679,10 +3191,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="12.6640625" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="18.44140625" customWidth="1" style="58" min="6" max="6"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="12.6640625" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
+    <col width="18.44140625" customWidth="1" style="56" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5691,7 +3203,7 @@
           <t>BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>PHSUB-202309282240,PHSUB-202309290829,ASUB-202309281150,LAX-YE-20230928</t>
         </is>
@@ -5934,10 +3446,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="19.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="13.88671875" customWidth="1" style="58" min="4" max="4"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="19.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="13.88671875" customWidth="1" style="56" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5946,7 +3458,7 @@
           <t>SUB-BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>ASUB-202309271200,LAX-YE-20230927,PHSUB-202309272321,PHSUB-202309280907</t>
         </is>
@@ -6163,9 +3675,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6174,7 +3686,7 @@
           <t>BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>ASUB-202309261139,LAX-YE-20230926,PHSUB-202309262007,PHSUB-202309270928</t>
         </is>
@@ -6447,9 +3959,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6458,7 +3970,7 @@
           <t>BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>ASUB-202309251051,LAX-YE-20230925,PHSUB-202309252232,PHSUB-202309260914</t>
         </is>
@@ -6690,10 +4202,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="20.33203125" customWidth="1" style="58" min="4" max="4"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="20.33203125" customWidth="1" style="56" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6702,7 +4214,7 @@
           <t>BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>ASUB-202309241058,LAX-YE-20230924,PHSUB-202309242229,PHSUB-202309250923</t>
         </is>
@@ -6938,10 +4450,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="18.109375" customWidth="1" style="58" min="2" max="2"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="18.109375" customWidth="1" style="56" min="2" max="2"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6950,7 +4462,7 @@
           <t>BATCH</t>
         </is>
       </c>
-      <c r="B1" s="61" t="inlineStr">
+      <c r="B1" s="59" t="inlineStr">
         <is>
           <t>ASUB-202309231117,LAX-YE-20230923,PHSUB-202309232226,PHSUB-202309240806</t>
         </is>
@@ -7173,10 +4685,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="13.88671875" customWidth="1" style="58" min="6" max="6"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
+    <col width="13.88671875" customWidth="1" style="56" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7190,7 +4702,7 @@
           <t>ASUB-202309221016,LAX-YE-20230922,PHSUB-202309222237,PHSUB-202309231000</t>
         </is>
       </c>
-      <c r="C1" s="65" t="n"/>
+      <c r="C1" s="63" t="n"/>
       <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
@@ -7414,10 +4926,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
-    <col width="14.109375" customWidth="1" style="58" min="6" max="6"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
+    <col width="14.109375" customWidth="1" style="56" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7431,7 +4943,7 @@
           <t>ASUB-202309211120,PHSUB-202309211121,PHSUB-202309220810</t>
         </is>
       </c>
-      <c r="C1" s="65" t="n"/>
+      <c r="C1" s="63" t="n"/>
       <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
@@ -7664,11 +5176,11 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="66" t="n">
+      <c r="A1" s="64" t="n">
         <v>45213</v>
       </c>
-      <c r="B1" s="64" t="n"/>
-      <c r="C1" s="65" t="n"/>
+      <c r="B1" s="62" t="n"/>
+      <c r="C1" s="63" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="9" t="inlineStr">
@@ -7843,9 +5355,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7859,7 +5371,7 @@
           <t>PHSUB-202309210857,PHSUB-202309211121,PHSUB-202309210857</t>
         </is>
       </c>
-      <c r="C1" s="65" t="n"/>
+      <c r="C1" s="63" t="n"/>
       <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
@@ -8083,9 +5595,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="14" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="14" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8099,7 +5611,7 @@
           <t>PHSUB-202309192121,LAX-YE-20230918,LAX-YE-20230919,PHSUB-202309182158</t>
         </is>
       </c>
-      <c r="C1" s="65" t="n"/>
+      <c r="C1" s="63" t="n"/>
       <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
@@ -8326,8 +5838,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8531,8 +6043,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8548,7 +6060,7 @@
       </c>
       <c r="C1" s="7" t="n"/>
       <c r="D1" s="7" t="n"/>
-      <c r="G1" s="62" t="inlineStr">
+      <c r="G1" s="60" t="inlineStr">
         <is>
           <t>DO IT EVERY MORNING</t>
         </is>
@@ -8772,8 +6284,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9021,9 +6533,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="20.88671875" customWidth="1" style="58" min="2" max="2"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="20.88671875" customWidth="1" style="56" min="2" max="2"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9250,7 +6762,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="18.21875" customWidth="1" style="58" min="1" max="1"/>
+    <col width="18.21875" customWidth="1" style="56" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9473,22 +6985,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="n"/>
-      <c r="B1" s="67" t="n"/>
-      <c r="C1" s="67" t="n"/>
-      <c r="D1" s="68" t="n"/>
+      <c r="B1" s="65" t="n"/>
+      <c r="C1" s="65" t="n"/>
+      <c r="D1" s="66" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="69" t="n"/>
-      <c r="B2" s="70" t="n"/>
-      <c r="C2" s="70" t="n"/>
-      <c r="D2" s="71" t="n"/>
+      <c r="A2" s="67" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="69" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
@@ -9724,25 +7236,25 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="18.6640625" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="13.33203125" customWidth="1" style="58" min="4" max="4"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="18.6640625" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="13.33203125" customWidth="1" style="56" min="4" max="4"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="72" t="inlineStr">
+      <c r="A1" s="70" t="inlineStr">
         <is>
           <t>PHSUB-202310070841,LAX-YE-20231007,ASUB-202310071242,PHSUB-202310071754</t>
         </is>
       </c>
-      <c r="D1" s="73" t="n"/>
+      <c r="D1" s="71" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="70" t="n"/>
-      <c r="B2" s="70" t="n"/>
-      <c r="C2" s="70" t="n"/>
-      <c r="D2" s="71" t="n"/>
+      <c r="A2" s="68" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="69" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
@@ -9994,30 +7506,30 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="58">
-      <c r="A1" s="74" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="56">
+      <c r="A1" s="72" t="inlineStr">
         <is>
           <t>ASUB-202310051002,PHSUB-202310051730,PHSUB-202310050810</t>
         </is>
       </c>
-      <c r="D1" s="73" t="n"/>
+      <c r="D1" s="71" t="n"/>
       <c r="E1" s="19" t="n"/>
       <c r="F1" s="19" t="n"/>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="58">
-      <c r="A2" s="70" t="n"/>
-      <c r="B2" s="70" t="n"/>
-      <c r="C2" s="70" t="n"/>
-      <c r="D2" s="71" t="n"/>
+    <row r="2" ht="13.8" customHeight="1" s="56">
+      <c r="A2" s="68" t="n"/>
+      <c r="B2" s="68" t="n"/>
+      <c r="C2" s="68" t="n"/>
+      <c r="D2" s="69" t="n"/>
       <c r="E2" s="19" t="n"/>
       <c r="F2" s="19" t="n"/>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="58">
+    <row r="3" ht="13.8" customHeight="1" s="56">
       <c r="A3" s="20" t="inlineStr">
         <is>
           <t>PAKG STATUS</t>
@@ -10037,7 +7549,7 @@
       <c r="E3" s="19" t="n"/>
       <c r="F3" s="19" t="n"/>
     </row>
-    <row r="4" ht="13.8" customHeight="1" s="58">
+    <row r="4" ht="13.8" customHeight="1" s="56">
       <c r="A4" s="21" t="n">
         <v>199</v>
       </c>
@@ -10052,7 +7564,7 @@
       <c r="E4" s="19" t="n"/>
       <c r="F4" s="19" t="n"/>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="58">
+    <row r="5" ht="13.8" customHeight="1" s="56">
       <c r="A5" s="21" t="n">
         <v>202</v>
       </c>
@@ -10067,7 +7579,7 @@
       <c r="E5" s="19" t="n"/>
       <c r="F5" s="19" t="n"/>
     </row>
-    <row r="6" ht="13.8" customHeight="1" s="58">
+    <row r="6" ht="13.8" customHeight="1" s="56">
       <c r="A6" s="21" t="n">
         <v>203</v>
       </c>
@@ -10082,7 +7594,7 @@
       <c r="E6" s="19" t="n"/>
       <c r="F6" s="19" t="n"/>
     </row>
-    <row r="7" ht="13.8" customHeight="1" s="58">
+    <row r="7" ht="13.8" customHeight="1" s="56">
       <c r="A7" s="21" t="n">
         <v>206</v>
       </c>
@@ -10097,7 +7609,7 @@
       <c r="E7" s="19" t="n"/>
       <c r="F7" s="19" t="n"/>
     </row>
-    <row r="8" ht="13.8" customHeight="1" s="58">
+    <row r="8" ht="13.8" customHeight="1" s="56">
       <c r="A8" s="21" t="n">
         <v>207</v>
       </c>
@@ -10107,7 +7619,7 @@
       <c r="E8" s="19" t="n"/>
       <c r="F8" s="19" t="n"/>
     </row>
-    <row r="9" ht="13.8" customHeight="1" s="58">
+    <row r="9" ht="13.8" customHeight="1" s="56">
       <c r="A9" s="21" t="n">
         <v>211</v>
       </c>
@@ -10122,7 +7634,7 @@
       <c r="E9" s="19" t="n"/>
       <c r="F9" s="19" t="n"/>
     </row>
-    <row r="10" ht="13.8" customHeight="1" s="58">
+    <row r="10" ht="13.8" customHeight="1" s="56">
       <c r="A10" s="21" t="n">
         <v>213</v>
       </c>
@@ -10132,7 +7644,7 @@
       <c r="E10" s="19" t="n"/>
       <c r="F10" s="19" t="n"/>
     </row>
-    <row r="11" ht="13.8" customHeight="1" s="58">
+    <row r="11" ht="13.8" customHeight="1" s="56">
       <c r="A11" s="21" t="n">
         <v>216</v>
       </c>
@@ -10142,7 +7654,7 @@
       <c r="E11" s="19" t="n"/>
       <c r="F11" s="19" t="n"/>
     </row>
-    <row r="12" ht="13.8" customHeight="1" s="58">
+    <row r="12" ht="13.8" customHeight="1" s="56">
       <c r="A12" s="21" t="n">
         <v>220</v>
       </c>
@@ -10152,7 +7664,7 @@
       <c r="E12" s="19" t="n"/>
       <c r="F12" s="19" t="n"/>
     </row>
-    <row r="13" ht="13.8" customHeight="1" s="58">
+    <row r="13" ht="13.8" customHeight="1" s="56">
       <c r="A13" s="21" t="n">
         <v>230</v>
       </c>
@@ -10162,7 +7674,7 @@
       <c r="E13" s="19" t="n"/>
       <c r="F13" s="19" t="n"/>
     </row>
-    <row r="14" ht="13.8" customHeight="1" s="58">
+    <row r="14" ht="13.8" customHeight="1" s="56">
       <c r="A14" s="21" t="n">
         <v>231</v>
       </c>
@@ -10177,7 +7689,7 @@
       <c r="E14" s="19" t="n"/>
       <c r="F14" s="19" t="n"/>
     </row>
-    <row r="15" ht="13.8" customHeight="1" s="58">
+    <row r="15" ht="13.8" customHeight="1" s="56">
       <c r="A15" s="23" t="inlineStr">
         <is>
           <t>TTL PAKGS</t>
@@ -10204,7 +7716,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" ht="13.8" customHeight="1" s="58">
+    <row r="16" ht="13.8" customHeight="1" s="56">
       <c r="A16" s="25" t="inlineStr">
         <is>
           <t>PAKGS ANALYSIS</t>
@@ -10216,7 +7728,7 @@
       <c r="E16" s="19" t="n"/>
       <c r="F16" s="19" t="n"/>
     </row>
-    <row r="17" ht="13.8" customHeight="1" s="58">
+    <row r="17" ht="13.8" customHeight="1" s="56">
       <c r="A17" s="26" t="inlineStr">
         <is>
           <t>1) 10 202s In-Transit</t>
@@ -10228,7 +7740,7 @@
       <c r="E17" s="19" t="n"/>
       <c r="F17" s="19" t="n"/>
     </row>
-    <row r="18" ht="13.8" customHeight="1" s="58">
+    <row r="18" ht="13.8" customHeight="1" s="56">
       <c r="A18" s="26" t="inlineStr">
         <is>
           <t>2) 7 199s Unrecevied</t>
@@ -10240,7 +7752,7 @@
       <c r="E18" s="19" t="n"/>
       <c r="F18" s="19" t="n"/>
     </row>
-    <row r="19" ht="13.8" customHeight="1" s="58">
+    <row r="19" ht="13.8" customHeight="1" s="56">
       <c r="A19" s="26" t="inlineStr">
         <is>
           <t>3) 1 206s wrong address</t>
@@ -10252,7 +7764,7 @@
       <c r="E19" s="19" t="n"/>
       <c r="F19" s="19" t="n"/>
     </row>
-    <row r="20" ht="13.8" customHeight="1" s="58">
+    <row r="20" ht="13.8" customHeight="1" s="56">
       <c r="A20" s="19" t="inlineStr">
         <is>
           <t>4) 8 211s Wrong Address</t>
@@ -10264,7 +7776,7 @@
       <c r="E20" s="19" t="n"/>
       <c r="F20" s="19" t="n"/>
     </row>
-    <row r="21" ht="13.8" customHeight="1" s="58">
+    <row r="21" ht="13.8" customHeight="1" s="56">
       <c r="A21" s="19" t="inlineStr">
         <is>
           <t>5) 2 231s no access communicty</t>
@@ -10276,7 +7788,7 @@
       <c r="E21" s="19" t="n"/>
       <c r="F21" s="19" t="n"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="58">
+    <row r="22" ht="15.75" customHeight="1" s="56">
       <c r="A22" s="19" t="n"/>
       <c r="B22" s="19" t="n"/>
       <c r="C22" s="27" t="n"/>
@@ -10284,7 +7796,7 @@
       <c r="E22" s="19" t="n"/>
       <c r="F22" s="19" t="n"/>
     </row>
-    <row r="23" ht="13.2" customHeight="1" s="58">
+    <row r="23" ht="13.2" customHeight="1" s="56">
       <c r="B23" s="15" t="n"/>
       <c r="D23" s="15" t="n"/>
       <c r="E23" s="15" t="n"/>
@@ -10311,15 +7823,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="17" customWidth="1" style="58" min="1" max="1"/>
-    <col width="39.21875" customWidth="1" style="58" min="3" max="3"/>
-    <col width="21.21875" customWidth="1" style="58" min="5" max="5"/>
+    <col width="17" customWidth="1" style="56" min="1" max="1"/>
+    <col width="39.21875" customWidth="1" style="56" min="3" max="3"/>
+    <col width="21.21875" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="n"/>
       <c r="B1" s="7" t="n"/>
-      <c r="C1" s="65" t="n"/>
+      <c r="C1" s="63" t="n"/>
       <c r="D1" s="7" t="n"/>
     </row>
     <row r="2">
@@ -10522,7 +8034,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="16.33203125" customWidth="1" style="58" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -10733,21 +8245,21 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="66" t="n">
+      <c r="A2" s="64" t="n">
         <v>45215</v>
       </c>
-      <c r="B2" s="64" t="n"/>
-      <c r="C2" s="65" t="n"/>
-      <c r="E2" s="66" t="n">
+      <c r="B2" s="62" t="n"/>
+      <c r="C2" s="63" t="n"/>
+      <c r="E2" s="64" t="n">
         <v>45212</v>
       </c>
-      <c r="F2" s="64" t="n"/>
-      <c r="G2" s="65" t="n"/>
-      <c r="I2" s="66" t="n">
+      <c r="F2" s="62" t="n"/>
+      <c r="G2" s="63" t="n"/>
+      <c r="I2" s="64" t="n">
         <v>45209</v>
       </c>
-      <c r="J2" s="64" t="n"/>
-      <c r="K2" s="65" t="n"/>
+      <c r="J2" s="62" t="n"/>
+      <c r="K2" s="63" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
@@ -11075,21 +8587,21 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="66" t="n">
+      <c r="A17" s="64" t="n">
         <v>45216</v>
       </c>
-      <c r="B17" s="64" t="n"/>
-      <c r="C17" s="65" t="n"/>
-      <c r="E17" s="66" t="n">
+      <c r="B17" s="62" t="n"/>
+      <c r="C17" s="63" t="n"/>
+      <c r="E17" s="64" t="n">
         <v>45213</v>
       </c>
-      <c r="F17" s="64" t="n"/>
-      <c r="G17" s="65" t="n"/>
-      <c r="I17" s="66" t="n">
+      <c r="F17" s="62" t="n"/>
+      <c r="G17" s="63" t="n"/>
+      <c r="I17" s="64" t="n">
         <v>45210</v>
       </c>
-      <c r="J17" s="64" t="n"/>
-      <c r="K17" s="65" t="n"/>
+      <c r="J17" s="62" t="n"/>
+      <c r="K17" s="63" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="9" t="inlineStr">
@@ -11452,16 +8964,16 @@
     </row>
     <row r="32">
       <c r="A32" s="8" t="n"/>
-      <c r="E32" s="66" t="n">
+      <c r="E32" s="64" t="n">
         <v>45214</v>
       </c>
-      <c r="F32" s="64" t="n"/>
-      <c r="G32" s="65" t="n"/>
-      <c r="I32" s="66" t="n">
+      <c r="F32" s="62" t="n"/>
+      <c r="G32" s="63" t="n"/>
+      <c r="I32" s="64" t="n">
         <v>45211</v>
       </c>
-      <c r="J32" s="64" t="n"/>
-      <c r="K32" s="65" t="n"/>
+      <c r="J32" s="62" t="n"/>
+      <c r="K32" s="63" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="15" t="n"/>
@@ -11788,7 +9300,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col width="16.33203125" customWidth="1" style="58" min="5" max="5"/>
+    <col width="16.33203125" customWidth="1" style="56" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -11797,7 +9309,7 @@
           <t>Batch</t>
         </is>
       </c>
-      <c r="B1" s="60" t="inlineStr">
+      <c r="B1" s="58" t="inlineStr">
         <is>
           <t>PHSUB-202310021021</t>
         </is>

--- a/tmp/V3-Auto-Daily-Report.xlsx
+++ b/tmp/V3-Auto-Daily-Report.xlsx
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:T90"/>
+  <dimension ref="A3:T309"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:F38"/>
@@ -776,21 +776,21 @@
     <row r="3" ht="13.2" customHeight="1" s="56">
       <c r="D3" s="61" t="inlineStr">
         <is>
-          <t>01-17-2024</t>
+          <t>01-22-2024</t>
         </is>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="63" t="n"/>
       <c r="H3" s="61" t="inlineStr">
         <is>
-          <t>01-18-2024</t>
+          <t>01-23-2024</t>
         </is>
       </c>
       <c r="I3" s="62" t="n"/>
       <c r="J3" s="63" t="n"/>
       <c r="L3" s="61" t="inlineStr">
         <is>
-          <t>01-19-2024</t>
+          <t>01-24-2024</t>
         </is>
       </c>
       <c r="M3" s="62" t="n"/>
@@ -848,22 +848,22 @@
         <v>195</v>
       </c>
       <c r="E5" s="42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.15%</t>
         </is>
       </c>
       <c r="H5" s="41" t="n">
         <v>195</v>
       </c>
       <c r="I5" s="42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="L5" s="41" t="n">
@@ -874,23 +874,23 @@
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-25-2024</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>21130</v>
+        <v>15307</v>
       </c>
       <c r="S5" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>PHSUB-202401201603</t>
+          <t>PHSUB-202401231138</t>
         </is>
       </c>
     </row>
@@ -930,18 +930,18 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-26-2024</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>21105</v>
+        <v>20559</v>
       </c>
       <c r="S6" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>PHSUB-202401201603</t>
+          <t>PHSUB-202401241106</t>
         </is>
       </c>
     </row>
@@ -981,18 +981,18 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-26-2024</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>21129</v>
+        <v>15307</v>
       </c>
       <c r="S7" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>PHSUB-202401201603</t>
+          <t>PHSUB-202401241106</t>
         </is>
       </c>
     </row>
@@ -1032,18 +1032,18 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-26-2024</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>21130</v>
+        <v>15306</v>
       </c>
       <c r="S8" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401241106</t>
         </is>
       </c>
     </row>
@@ -1052,49 +1052,49 @@
         <v>203</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2944</v>
+        <v>3316</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>99.93%</t>
+          <t>99.22%</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4328</v>
+        <v>3491</v>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>99.79%</t>
+          <t>99.71%</t>
         </is>
       </c>
       <c r="L9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>1757</v>
+        <v>4283</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>98.21%</t>
+          <t>99.44%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>21129</v>
+        <v>16551</v>
       </c>
       <c r="S9" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1134,18 +1134,18 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S10" t="n">
         <v>202</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1185,18 +1185,18 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S11" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1205,49 +1205,49 @@
         <v>213</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="L12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>1.01%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S12" t="n">
         <v>202</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1287,18 +1287,18 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S13" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1307,49 +1307,49 @@
         <v>218</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
         <v>218</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="L14" s="3" t="n">
         <v>218</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>0.22%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S14" t="n">
         <v>231</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1389,18 +1389,18 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S15" t="n">
         <v>202</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1440,18 +1440,18 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S16" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1460,49 +1460,49 @@
         <v>230</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.06%</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
         <v>230</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="L17" s="3" t="n">
         <v>230</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S17" t="n">
         <v>202</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1542,18 +1542,18 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>21129</v>
+        <v>21105</v>
       </c>
       <c r="S18" t="n">
         <v>202</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2946</v>
+        <v>3342</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="I19" s="6" t="n">
-        <v>4337</v>
+        <v>3501</v>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1789</v>
+        <v>4307</v>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
@@ -1599,93 +1599,93 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S19" t="n">
         <v>202</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="20" ht="13.2" customHeight="1" s="56">
       <c r="Q20" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>21130</v>
+        <v>21108</v>
       </c>
       <c r="S20" t="n">
         <v>202</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="21" ht="13.2" customHeight="1" s="56">
       <c r="Q21" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>16549</v>
+        <v>21105</v>
       </c>
       <c r="S21" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="22" ht="13.2" customHeight="1" s="56">
       <c r="D22" s="61" t="inlineStr">
         <is>
-          <t>01-20-2024</t>
+          <t>01-25-2024</t>
         </is>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="63" t="n"/>
       <c r="H22" s="61" t="inlineStr">
         <is>
-          <t>01-21-2024</t>
+          <t>01-26-2024</t>
         </is>
       </c>
       <c r="I22" s="62" t="n"/>
       <c r="J22" s="63" t="n"/>
       <c r="L22" s="61" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="M22" s="62" t="n"/>
       <c r="N22" s="63" t="n"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S22" t="n">
         <v>202</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1737,18 +1737,18 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S23" t="n">
         <v>202</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1757,49 +1757,49 @@
         <v>195</v>
       </c>
       <c r="E24" s="42" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>1.08%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="H24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="I24" s="42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="L24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="M24" s="42" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S24" t="n">
         <v>202</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1819,11 +1819,11 @@
         <v>199</v>
       </c>
       <c r="I25" s="43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="L25" s="43" t="n">
@@ -1839,18 +1839,18 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S25" t="n">
         <v>231</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1890,18 +1890,18 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S26" t="n">
         <v>202</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1910,11 +1910,11 @@
         <v>202</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
@@ -1932,27 +1932,27 @@
         <v>202</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N27" s="5" t="inlineStr">
         <is>
-          <t>0.86%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S27" t="n">
         <v>202</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1961,49 +1961,49 @@
         <v>203</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>3185</v>
+        <v>3128</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>98.36%</t>
+          <t>99.14%</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>2895</v>
+        <v>4163</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>98.74%</t>
+          <t>98.84%</t>
         </is>
       </c>
       <c r="L28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>3278</v>
+        <v>1926</v>
       </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
-          <t>97.76%</t>
+          <t>96.30%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>12990</v>
+        <v>21105</v>
       </c>
       <c r="S28" t="n">
         <v>202</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2012,11 +2012,11 @@
         <v>207</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
@@ -2043,18 +2043,18 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S29" t="n">
         <v>202</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2063,49 +2063,49 @@
         <v>211</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.07%</t>
         </is>
       </c>
       <c r="L30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S30" t="n">
         <v>202</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2114,49 +2114,49 @@
         <v>213</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>0.31%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>0.34%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="L31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S31" t="n">
         <v>202</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2165,11 +2165,11 @@
         <v>216</v>
       </c>
       <c r="E32" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
@@ -2196,18 +2196,18 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S32" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2216,49 +2216,49 @@
         <v>218</v>
       </c>
       <c r="E33" s="4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F33" s="5" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
         <v>218</v>
       </c>
       <c r="I33" s="4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="inlineStr">
         <is>
-          <t>0.61%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="L33" s="3" t="n">
         <v>218</v>
       </c>
       <c r="M33" s="4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N33" s="5" t="inlineStr">
         <is>
-          <t>0.21%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S33" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2298,18 +2298,18 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S34" t="n">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2349,18 +2349,18 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>21130</v>
+        <v>21108</v>
       </c>
       <c r="S35" t="n">
         <v>202</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2369,49 +2369,49 @@
         <v>230</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="L36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S36" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2442,27 +2442,27 @@
         <v>231</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S37" t="n">
         <v>202</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3238</v>
+        <v>3155</v>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2932</v>
+        <v>4212</v>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="M38" s="6" t="n">
-        <v>3353</v>
+        <v>2000</v>
       </c>
       <c r="N38" s="5" t="inlineStr">
         <is>
@@ -2508,218 +2508,4905 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S38" t="n">
         <v>202</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="39" ht="13.2" customHeight="1" s="56">
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>21129</v>
+        <v>21105</v>
       </c>
       <c r="S39" t="n">
         <v>202</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="40" ht="13.2" customHeight="1" s="56">
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>21129</v>
+        <v>21105</v>
       </c>
       <c r="S40" t="n">
         <v>202</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="41" ht="13.2" customHeight="1" s="56">
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S41" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="42" ht="13.2" customHeight="1" s="56">
       <c r="Q42" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S42" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="43" ht="13.2" customHeight="1" s="56">
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>21130</v>
+        <v>16551</v>
       </c>
       <c r="S43" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="44" ht="13.2" customHeight="1" s="56">
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>21119</v>
+        <v>21105</v>
       </c>
       <c r="S44" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="45" ht="13.2" customHeight="1" s="56">
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S45" t="n">
         <v>202</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
     <row r="46" ht="13.2" customHeight="1" s="56">
       <c r="Q46" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>21130</v>
+        <v>21105</v>
       </c>
       <c r="S46" t="n">
         <v>202</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>PHX-YE-20240120</t>
-        </is>
-      </c>
-    </row>
-    <row r="47" ht="13.2" customHeight="1" s="56"/>
-    <row r="48" ht="13.2" customHeight="1" s="56"/>
-    <row r="49" ht="13.2" customHeight="1" s="56"/>
-    <row r="50" ht="13.2" customHeight="1" s="56"/>
-    <row r="51" ht="13.2" customHeight="1" s="56"/>
-    <row r="52" ht="13.2" customHeight="1" s="56"/>
-    <row r="53" ht="13.2" customHeight="1" s="56"/>
-    <row r="55" ht="13.2" customHeight="1" s="56"/>
-    <row r="56" ht="13.2" customHeight="1" s="56"/>
-    <row r="57" ht="13.2" customHeight="1" s="56"/>
-    <row r="58" ht="13.2" customHeight="1" s="56"/>
-    <row r="59" ht="13.2" customHeight="1" s="56"/>
-    <row r="60" ht="13.2" customHeight="1" s="56"/>
-    <row r="61" ht="13.2" customHeight="1" s="56"/>
-    <row r="62" ht="13.2" customHeight="1" s="56"/>
-    <row r="63" ht="13.2" customHeight="1" s="56"/>
-    <row r="64" ht="13.2" customHeight="1" s="56"/>
-    <row r="65" ht="13.2" customHeight="1" s="56"/>
-    <row r="66" ht="13.2" customHeight="1" s="56"/>
-    <row r="67" ht="13.2" customHeight="1" s="56"/>
-    <row r="68" ht="13.2" customHeight="1" s="56"/>
-    <row r="69" ht="13.2" customHeight="1" s="56"/>
-    <row r="73" ht="13.2" customHeight="1" s="56"/>
-    <row r="74" ht="13.2" customHeight="1" s="56"/>
-    <row r="75" ht="13.2" customHeight="1" s="56"/>
-    <row r="76" ht="13.2" customHeight="1" s="56"/>
-    <row r="77" ht="13.2" customHeight="1" s="56"/>
-    <row r="78" ht="13.2" customHeight="1" s="56"/>
-    <row r="79" ht="13.2" customHeight="1" s="56"/>
-    <row r="80" ht="13.2" customHeight="1" s="56"/>
-    <row r="81" ht="13.2" customHeight="1" s="56"/>
-    <row r="82" ht="13.2" customHeight="1" s="56"/>
-    <row r="83" ht="13.2" customHeight="1" s="56"/>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="47" ht="13.2" customHeight="1" s="56">
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S47" t="n">
+        <v>202</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" ht="13.2" customHeight="1" s="56">
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>16553</v>
+      </c>
+      <c r="S48" t="n">
+        <v>202</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240123</t>
+        </is>
+      </c>
+    </row>
+    <row r="49" ht="13.2" customHeight="1" s="56">
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S49" t="n">
+        <v>211</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="13.2" customHeight="1" s="56">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S50" t="n">
+        <v>202</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="51" ht="13.2" customHeight="1" s="56">
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S51" t="n">
+        <v>202</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" ht="13.2" customHeight="1" s="56">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S52" t="n">
+        <v>202</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="53" ht="13.2" customHeight="1" s="56">
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S53" t="n">
+        <v>202</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S54" t="n">
+        <v>202</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="55" ht="13.2" customHeight="1" s="56">
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S55" t="n">
+        <v>202</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" ht="13.2" customHeight="1" s="56">
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S56" t="n">
+        <v>202</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="57" ht="13.2" customHeight="1" s="56">
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S57" t="n">
+        <v>202</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" ht="13.2" customHeight="1" s="56">
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S58" t="n">
+        <v>202</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="59" ht="13.2" customHeight="1" s="56">
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S59" t="n">
+        <v>202</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" ht="13.2" customHeight="1" s="56">
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S60" t="n">
+        <v>202</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="61" ht="13.2" customHeight="1" s="56">
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>12961</v>
+      </c>
+      <c r="S61" t="n">
+        <v>231</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="62" ht="13.2" customHeight="1" s="56">
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S62" t="n">
+        <v>202</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="63" ht="13.2" customHeight="1" s="56">
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S63" t="n">
+        <v>202</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="64" ht="13.2" customHeight="1" s="56">
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S64" t="n">
+        <v>202</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="13.2" customHeight="1" s="56">
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>12969</v>
+      </c>
+      <c r="S65" t="n">
+        <v>202</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="13.2" customHeight="1" s="56">
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S66" t="n">
+        <v>211</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>PHSUB-202401231138</t>
+        </is>
+      </c>
+    </row>
+    <row r="67" ht="13.2" customHeight="1" s="56">
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>20559</v>
+      </c>
+      <c r="S67" t="n">
+        <v>211</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="68" ht="13.2" customHeight="1" s="56">
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S68" t="n">
+        <v>211</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="69" ht="13.2" customHeight="1" s="56">
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>15306</v>
+      </c>
+      <c r="S69" t="n">
+        <v>211</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S70" t="n">
+        <v>211</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S71" t="n">
+        <v>202</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S72" t="n">
+        <v>211</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="73" ht="13.2" customHeight="1" s="56">
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S73" t="n">
+        <v>202</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="74" ht="13.2" customHeight="1" s="56">
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S74" t="n">
+        <v>202</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="13.2" customHeight="1" s="56">
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S75" t="n">
+        <v>231</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="76" ht="13.2" customHeight="1" s="56">
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S76" t="n">
+        <v>202</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="77" ht="13.2" customHeight="1" s="56">
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S77" t="n">
+        <v>231</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="78" ht="13.2" customHeight="1" s="56">
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S78" t="n">
+        <v>202</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="79" ht="13.2" customHeight="1" s="56">
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S79" t="n">
+        <v>202</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" ht="13.2" customHeight="1" s="56">
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S80" t="n">
+        <v>202</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="81" ht="13.2" customHeight="1" s="56">
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S81" t="n">
+        <v>202</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="82" ht="13.2" customHeight="1" s="56">
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S82" t="n">
+        <v>202</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="83" ht="13.2" customHeight="1" s="56">
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S83" t="n">
+        <v>202</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
     <row r="84" ht="13.2" customHeight="1" s="56">
       <c r="A84" s="8" t="n"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S84" t="n">
+        <v>202</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="13.2" customHeight="1" s="56">
       <c r="A85" s="8" t="n"/>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S85" t="n">
+        <v>202</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="13.2" customHeight="1" s="56">
       <c r="A86" s="8" t="n"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S86" t="n">
+        <v>231</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="13.2" customHeight="1" s="56">
       <c r="A87" s="8" t="n"/>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S87" t="n">
+        <v>202</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="13.2" customHeight="1" s="56">
       <c r="A88" s="8" t="n"/>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S88" t="n">
+        <v>202</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="13.2" customHeight="1" s="56">
       <c r="A89" s="8" t="n"/>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S89" t="n">
+        <v>202</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="13.2" customHeight="1" s="56">
       <c r="A90" s="8" t="n"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S90" t="n">
+        <v>202</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S91" t="n">
+        <v>202</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S92" t="n">
+        <v>202</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S93" t="n">
+        <v>202</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S94" t="n">
+        <v>202</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S95" t="n">
+        <v>211</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S96" t="n">
+        <v>202</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S97" t="n">
+        <v>202</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S98" t="n">
+        <v>202</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S99" t="n">
+        <v>202</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S100" t="n">
+        <v>202</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S101" t="n">
+        <v>202</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S102" t="n">
+        <v>202</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S103" t="n">
+        <v>202</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S104" t="n">
+        <v>211</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S105" t="n">
+        <v>202</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S106" t="n">
+        <v>202</v>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S107" t="n">
+        <v>202</v>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S108" t="n">
+        <v>202</v>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>16553</v>
+      </c>
+      <c r="S109" t="n">
+        <v>202</v>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240123</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S110" t="n">
+        <v>211</v>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S111" t="n">
+        <v>202</v>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S112" t="n">
+        <v>202</v>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S113" t="n">
+        <v>202</v>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S114" t="n">
+        <v>202</v>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S115" t="n">
+        <v>202</v>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S116" t="n">
+        <v>202</v>
+      </c>
+      <c r="T116" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S117" t="n">
+        <v>202</v>
+      </c>
+      <c r="T117" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S118" t="n">
+        <v>202</v>
+      </c>
+      <c r="T118" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S119" t="n">
+        <v>202</v>
+      </c>
+      <c r="T119" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S120" t="n">
+        <v>202</v>
+      </c>
+      <c r="T120" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S121" t="n">
+        <v>202</v>
+      </c>
+      <c r="T121" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>12961</v>
+      </c>
+      <c r="S122" t="n">
+        <v>231</v>
+      </c>
+      <c r="T122" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S123" t="n">
+        <v>202</v>
+      </c>
+      <c r="T123" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S124" t="n">
+        <v>202</v>
+      </c>
+      <c r="T124" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S125" t="n">
+        <v>202</v>
+      </c>
+      <c r="T125" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>12969</v>
+      </c>
+      <c r="S126" t="n">
+        <v>202</v>
+      </c>
+      <c r="T126" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S127" t="n">
+        <v>211</v>
+      </c>
+      <c r="T127" t="inlineStr">
+        <is>
+          <t>PHSUB-202401231138</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>20559</v>
+      </c>
+      <c r="S128" t="n">
+        <v>211</v>
+      </c>
+      <c r="T128" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S129" t="n">
+        <v>211</v>
+      </c>
+      <c r="T129" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>15306</v>
+      </c>
+      <c r="S130" t="n">
+        <v>211</v>
+      </c>
+      <c r="T130" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S131" t="n">
+        <v>211</v>
+      </c>
+      <c r="T131" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S132" t="n">
+        <v>202</v>
+      </c>
+      <c r="T132" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S133" t="n">
+        <v>211</v>
+      </c>
+      <c r="T133" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S134" t="n">
+        <v>202</v>
+      </c>
+      <c r="T134" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S135" t="n">
+        <v>202</v>
+      </c>
+      <c r="T135" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S136" t="n">
+        <v>231</v>
+      </c>
+      <c r="T136" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S137" t="n">
+        <v>202</v>
+      </c>
+      <c r="T137" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S138" t="n">
+        <v>231</v>
+      </c>
+      <c r="T138" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S139" t="n">
+        <v>202</v>
+      </c>
+      <c r="T139" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S140" t="n">
+        <v>202</v>
+      </c>
+      <c r="T140" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S141" t="n">
+        <v>202</v>
+      </c>
+      <c r="T141" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S142" t="n">
+        <v>202</v>
+      </c>
+      <c r="T142" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S143" t="n">
+        <v>202</v>
+      </c>
+      <c r="T143" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S144" t="n">
+        <v>202</v>
+      </c>
+      <c r="T144" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S145" t="n">
+        <v>202</v>
+      </c>
+      <c r="T145" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S146" t="n">
+        <v>202</v>
+      </c>
+      <c r="T146" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S147" t="n">
+        <v>231</v>
+      </c>
+      <c r="T147" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S148" t="n">
+        <v>202</v>
+      </c>
+      <c r="T148" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S149" t="n">
+        <v>202</v>
+      </c>
+      <c r="T149" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S150" t="n">
+        <v>202</v>
+      </c>
+      <c r="T150" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S151" t="n">
+        <v>202</v>
+      </c>
+      <c r="T151" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S152" t="n">
+        <v>202</v>
+      </c>
+      <c r="T152" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S153" t="n">
+        <v>202</v>
+      </c>
+      <c r="T153" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S154" t="n">
+        <v>202</v>
+      </c>
+      <c r="T154" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S155" t="n">
+        <v>202</v>
+      </c>
+      <c r="T155" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S156" t="n">
+        <v>211</v>
+      </c>
+      <c r="T156" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S157" t="n">
+        <v>202</v>
+      </c>
+      <c r="T157" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S158" t="n">
+        <v>202</v>
+      </c>
+      <c r="T158" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S159" t="n">
+        <v>202</v>
+      </c>
+      <c r="T159" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S160" t="n">
+        <v>202</v>
+      </c>
+      <c r="T160" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S161" t="n">
+        <v>202</v>
+      </c>
+      <c r="T161" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S162" t="n">
+        <v>202</v>
+      </c>
+      <c r="T162" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S163" t="n">
+        <v>202</v>
+      </c>
+      <c r="T163" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S164" t="n">
+        <v>202</v>
+      </c>
+      <c r="T164" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S165" t="n">
+        <v>211</v>
+      </c>
+      <c r="T165" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S166" t="n">
+        <v>202</v>
+      </c>
+      <c r="T166" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S167" t="n">
+        <v>202</v>
+      </c>
+      <c r="T167" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S168" t="n">
+        <v>202</v>
+      </c>
+      <c r="T168" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S169" t="n">
+        <v>202</v>
+      </c>
+      <c r="T169" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>16553</v>
+      </c>
+      <c r="S170" t="n">
+        <v>202</v>
+      </c>
+      <c r="T170" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240123</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S171" t="n">
+        <v>211</v>
+      </c>
+      <c r="T171" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S172" t="n">
+        <v>202</v>
+      </c>
+      <c r="T172" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S173" t="n">
+        <v>202</v>
+      </c>
+      <c r="T173" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S174" t="n">
+        <v>202</v>
+      </c>
+      <c r="T174" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S175" t="n">
+        <v>202</v>
+      </c>
+      <c r="T175" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S176" t="n">
+        <v>202</v>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S177" t="n">
+        <v>202</v>
+      </c>
+      <c r="T177" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S178" t="n">
+        <v>202</v>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S179" t="n">
+        <v>202</v>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S180" t="n">
+        <v>202</v>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S181" t="n">
+        <v>202</v>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S182" t="n">
+        <v>202</v>
+      </c>
+      <c r="T182" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>12961</v>
+      </c>
+      <c r="S183" t="n">
+        <v>231</v>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S184" t="n">
+        <v>202</v>
+      </c>
+      <c r="T184" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S185" t="n">
+        <v>202</v>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S186" t="n">
+        <v>202</v>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>12969</v>
+      </c>
+      <c r="S187" t="n">
+        <v>202</v>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S188" t="n">
+        <v>211</v>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>PHSUB-202401231138</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>20559</v>
+      </c>
+      <c r="S189" t="n">
+        <v>211</v>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S190" t="n">
+        <v>211</v>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>15306</v>
+      </c>
+      <c r="S191" t="n">
+        <v>211</v>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S192" t="n">
+        <v>211</v>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S193" t="n">
+        <v>202</v>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S194" t="n">
+        <v>211</v>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S195" t="n">
+        <v>202</v>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S196" t="n">
+        <v>202</v>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S197" t="n">
+        <v>231</v>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S198" t="n">
+        <v>202</v>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S199" t="n">
+        <v>231</v>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S200" t="n">
+        <v>202</v>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S201" t="n">
+        <v>202</v>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S202" t="n">
+        <v>202</v>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S203" t="n">
+        <v>202</v>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S204" t="n">
+        <v>202</v>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S205" t="n">
+        <v>202</v>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S206" t="n">
+        <v>202</v>
+      </c>
+      <c r="T206" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S207" t="n">
+        <v>202</v>
+      </c>
+      <c r="T207" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S208" t="n">
+        <v>231</v>
+      </c>
+      <c r="T208" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S209" t="n">
+        <v>202</v>
+      </c>
+      <c r="T209" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S210" t="n">
+        <v>202</v>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S211" t="n">
+        <v>202</v>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S212" t="n">
+        <v>202</v>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S213" t="n">
+        <v>202</v>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S214" t="n">
+        <v>202</v>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S215" t="n">
+        <v>202</v>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S216" t="n">
+        <v>202</v>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S217" t="n">
+        <v>211</v>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S218" t="n">
+        <v>202</v>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S219" t="n">
+        <v>202</v>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S220" t="n">
+        <v>202</v>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S221" t="n">
+        <v>202</v>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S222" t="n">
+        <v>202</v>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S223" t="n">
+        <v>202</v>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S224" t="n">
+        <v>202</v>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S225" t="n">
+        <v>202</v>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S226" t="n">
+        <v>211</v>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S227" t="n">
+        <v>202</v>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S228" t="n">
+        <v>202</v>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S229" t="n">
+        <v>202</v>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S230" t="n">
+        <v>202</v>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>16553</v>
+      </c>
+      <c r="S231" t="n">
+        <v>202</v>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240123</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S232" t="n">
+        <v>211</v>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S233" t="n">
+        <v>202</v>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S234" t="n">
+        <v>202</v>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S235" t="n">
+        <v>202</v>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S236" t="n">
+        <v>202</v>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S237" t="n">
+        <v>202</v>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S238" t="n">
+        <v>202</v>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S239" t="n">
+        <v>202</v>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S240" t="n">
+        <v>202</v>
+      </c>
+      <c r="T240" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S241" t="n">
+        <v>202</v>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S242" t="n">
+        <v>202</v>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S243" t="n">
+        <v>202</v>
+      </c>
+      <c r="T243" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
+        <v>12961</v>
+      </c>
+      <c r="S244" t="n">
+        <v>231</v>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S245" t="n">
+        <v>202</v>
+      </c>
+      <c r="T245" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S246" t="n">
+        <v>202</v>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S247" t="n">
+        <v>202</v>
+      </c>
+      <c r="T247" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
+        <v>12969</v>
+      </c>
+      <c r="S248" t="n">
+        <v>202</v>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S249" t="n">
+        <v>211</v>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t>PHSUB-202401231138</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
+        <v>20559</v>
+      </c>
+      <c r="S250" t="n">
+        <v>211</v>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
+        <v>15307</v>
+      </c>
+      <c r="S251" t="n">
+        <v>211</v>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>01-26-2024</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
+        <v>15306</v>
+      </c>
+      <c r="S252" t="n">
+        <v>211</v>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>PHSUB-202401241106</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="Q253" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R253" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S253" t="n">
+        <v>211</v>
+      </c>
+      <c r="T253" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R254" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S254" t="n">
+        <v>202</v>
+      </c>
+      <c r="T254" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R255" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S255" t="n">
+        <v>211</v>
+      </c>
+      <c r="T255" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R256" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S256" t="n">
+        <v>202</v>
+      </c>
+      <c r="T256" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R257" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S257" t="n">
+        <v>202</v>
+      </c>
+      <c r="T257" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R258" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S258" t="n">
+        <v>231</v>
+      </c>
+      <c r="T258" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R259" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S259" t="n">
+        <v>202</v>
+      </c>
+      <c r="T259" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="Q260" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R260" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S260" t="n">
+        <v>231</v>
+      </c>
+      <c r="T260" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R261" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S261" t="n">
+        <v>202</v>
+      </c>
+      <c r="T261" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="Q262" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R262" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S262" t="n">
+        <v>202</v>
+      </c>
+      <c r="T262" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R263" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S263" t="n">
+        <v>202</v>
+      </c>
+      <c r="T263" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R264" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S264" t="n">
+        <v>202</v>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R265" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S265" t="n">
+        <v>202</v>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R266" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S266" t="n">
+        <v>202</v>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R267" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S267" t="n">
+        <v>202</v>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R268" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S268" t="n">
+        <v>202</v>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R269" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S269" t="n">
+        <v>231</v>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R270" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S270" t="n">
+        <v>202</v>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R271" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S271" t="n">
+        <v>202</v>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R272" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S272" t="n">
+        <v>202</v>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R273" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S273" t="n">
+        <v>202</v>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R274" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S274" t="n">
+        <v>202</v>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R275" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S275" t="n">
+        <v>202</v>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R276" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S276" t="n">
+        <v>202</v>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R277" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S277" t="n">
+        <v>202</v>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R278" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S278" t="n">
+        <v>211</v>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R279" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S279" t="n">
+        <v>202</v>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R280" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S280" t="n">
+        <v>202</v>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R281" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S281" t="n">
+        <v>202</v>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R282" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S282" t="n">
+        <v>202</v>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R283" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S283" t="n">
+        <v>202</v>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S284" t="n">
+        <v>202</v>
+      </c>
+      <c r="T284" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S285" t="n">
+        <v>202</v>
+      </c>
+      <c r="T285" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R286" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S286" t="n">
+        <v>202</v>
+      </c>
+      <c r="T286" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R287" t="n">
+        <v>16551</v>
+      </c>
+      <c r="S287" t="n">
+        <v>211</v>
+      </c>
+      <c r="T287" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R288" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S288" t="n">
+        <v>202</v>
+      </c>
+      <c r="T288" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="Q289" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R289" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S289" t="n">
+        <v>202</v>
+      </c>
+      <c r="T289" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R290" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S290" t="n">
+        <v>202</v>
+      </c>
+      <c r="T290" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R291" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S291" t="n">
+        <v>202</v>
+      </c>
+      <c r="T291" t="inlineStr">
+        <is>
+          <t>PHSUB-202401251138</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>01-25-2024</t>
+        </is>
+      </c>
+      <c r="R292" t="n">
+        <v>16553</v>
+      </c>
+      <c r="S292" t="n">
+        <v>202</v>
+      </c>
+      <c r="T292" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240123</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R293" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S293" t="n">
+        <v>211</v>
+      </c>
+      <c r="T293" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R294" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S294" t="n">
+        <v>202</v>
+      </c>
+      <c r="T294" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R295" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S295" t="n">
+        <v>202</v>
+      </c>
+      <c r="T295" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R296" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S296" t="n">
+        <v>202</v>
+      </c>
+      <c r="T296" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="Q297" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R297" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S297" t="n">
+        <v>202</v>
+      </c>
+      <c r="T297" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R298" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S298" t="n">
+        <v>202</v>
+      </c>
+      <c r="T298" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R299" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S299" t="n">
+        <v>202</v>
+      </c>
+      <c r="T299" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R300" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S300" t="n">
+        <v>202</v>
+      </c>
+      <c r="T300" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="Q301" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R301" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S301" t="n">
+        <v>202</v>
+      </c>
+      <c r="T301" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="Q302" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R302" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S302" t="n">
+        <v>202</v>
+      </c>
+      <c r="T302" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S303" t="n">
+        <v>202</v>
+      </c>
+      <c r="T303" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
+        <v>21108</v>
+      </c>
+      <c r="S304" t="n">
+        <v>202</v>
+      </c>
+      <c r="T304" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>12961</v>
+      </c>
+      <c r="S305" t="n">
+        <v>231</v>
+      </c>
+      <c r="T305" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S306" t="n">
+        <v>202</v>
+      </c>
+      <c r="T306" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S307" t="n">
+        <v>202</v>
+      </c>
+      <c r="T307" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
+        <v>21105</v>
+      </c>
+      <c r="S308" t="n">
+        <v>202</v>
+      </c>
+      <c r="T308" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>01-27-2024</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
+        <v>12969</v>
+      </c>
+      <c r="S309" t="n">
+        <v>202</v>
+      </c>
+      <c r="T309" t="inlineStr">
+        <is>
+          <t>PHX-YE-20240125</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/tmp/V3-Auto-Daily-Report.xlsx
+++ b/tmp/V3-Auto-Daily-Report.xlsx
@@ -763,7 +763,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:T309"/>
+  <dimension ref="A3:T90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D22" sqref="D22:F38"/>
@@ -776,21 +776,21 @@
     <row r="3" ht="13.2" customHeight="1" s="56">
       <c r="D3" s="61" t="inlineStr">
         <is>
-          <t>01-22-2024</t>
+          <t>01-23-2024</t>
         </is>
       </c>
       <c r="E3" s="62" t="n"/>
       <c r="F3" s="63" t="n"/>
       <c r="H3" s="61" t="inlineStr">
         <is>
-          <t>01-23-2024</t>
+          <t>01-24-2024</t>
         </is>
       </c>
       <c r="I3" s="62" t="n"/>
       <c r="J3" s="63" t="n"/>
       <c r="L3" s="61" t="inlineStr">
         <is>
-          <t>01-24-2024</t>
+          <t>01-25-2024</t>
         </is>
       </c>
       <c r="M3" s="62" t="n"/>
@@ -848,11 +848,11 @@
         <v>195</v>
       </c>
       <c r="E5" s="42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5" s="5" t="inlineStr">
         <is>
-          <t>0.15%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="H5" s="41" t="n">
@@ -863,18 +863,18 @@
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="L5" s="41" t="n">
         <v>195</v>
       </c>
       <c r="M5" s="42" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N5" s="5" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -934,7 +934,7 @@
         </is>
       </c>
       <c r="R6" t="n">
-        <v>20559</v>
+        <v>15307</v>
       </c>
       <c r="S6" t="n">
         <v>211</v>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="R7" t="n">
-        <v>15307</v>
+        <v>15306</v>
       </c>
       <c r="S7" t="n">
         <v>211</v>
@@ -1023,27 +1023,27 @@
         <v>202</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>01-26-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>15306</v>
+        <v>21105</v>
       </c>
       <c r="S8" t="n">
         <v>211</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>PHSUB-202401241106</t>
+          <t>PHSUB-202401251138</t>
         </is>
       </c>
     </row>
@@ -1052,33 +1052,33 @@
         <v>203</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>3316</v>
+        <v>3491</v>
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>99.22%</t>
+          <t>99.71%</t>
         </is>
       </c>
       <c r="H9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3491</v>
+        <v>4283</v>
       </c>
       <c r="J9" s="5" t="inlineStr">
         <is>
-          <t>99.71%</t>
+          <t>99.44%</t>
         </is>
       </c>
       <c r="L9" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>4283</v>
+        <v>3128</v>
       </c>
       <c r="N9" s="5" t="inlineStr">
         <is>
-          <t>99.44%</t>
+          <t>99.14%</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="R9" t="n">
-        <v>16551</v>
+        <v>21105</v>
       </c>
       <c r="S9" t="n">
         <v>211</v>
@@ -1125,27 +1125,27 @@
         <v>207</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>21105</v>
+        <v>160992</v>
       </c>
       <c r="S10" t="n">
         <v>202</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1176,27 +1176,27 @@
         <v>211</v>
       </c>
       <c r="M11" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>21105</v>
+        <v>21120</v>
       </c>
       <c r="S11" t="n">
         <v>211</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1205,49 +1205,49 @@
         <v>213</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.09%</t>
         </is>
       </c>
       <c r="H12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J12" s="5" t="inlineStr">
         <is>
-          <t>0.09%</t>
+          <t>0.39%</t>
         </is>
       </c>
       <c r="L12" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N12" s="5" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>21105</v>
+        <v>12957</v>
       </c>
       <c r="S12" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1278,27 +1278,27 @@
         <v>216</v>
       </c>
       <c r="M13" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S13" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1307,11 +1307,11 @@
         <v>218</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="5" t="inlineStr">
         <is>
-          <t>0.24%</t>
+          <t>0.17%</t>
         </is>
       </c>
       <c r="H14" s="3" t="n">
@@ -1322,34 +1322,34 @@
       </c>
       <c r="J14" s="5" t="inlineStr">
         <is>
-          <t>0.17%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="L14" s="3" t="n">
         <v>218</v>
       </c>
       <c r="M14" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="5" t="inlineStr">
         <is>
-          <t>0.14%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S14" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1389,18 +1389,18 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S15" t="n">
         <v>202</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHSUB-202401261943</t>
         </is>
       </c>
     </row>
@@ -1440,18 +1440,18 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-25-2024</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>21105</v>
+        <v>16553</v>
       </c>
       <c r="S16" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240123</t>
         </is>
       </c>
     </row>
@@ -1460,11 +1460,11 @@
         <v>230</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="5" t="inlineStr">
         <is>
-          <t>0.06%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H17" s="3" t="n">
@@ -1482,11 +1482,11 @@
         <v>230</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1495,14 +1495,14 @@
         </is>
       </c>
       <c r="R17" t="n">
-        <v>21105</v>
+        <v>12961</v>
       </c>
       <c r="S17" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240125</t>
         </is>
       </c>
     </row>
@@ -1542,18 +1542,18 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S18" t="n">
         <v>202</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
         </is>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3342</v>
+        <v>3501</v>
       </c>
       <c r="F19" s="5" t="inlineStr">
         <is>
@@ -1577,7 +1577,7 @@
         </is>
       </c>
       <c r="I19" s="6" t="n">
-        <v>3501</v>
+        <v>4307</v>
       </c>
       <c r="J19" s="5" t="inlineStr">
         <is>
@@ -1590,7 +1590,7 @@
         </is>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4307</v>
+        <v>3155</v>
       </c>
       <c r="N19" s="5" t="inlineStr">
         <is>
@@ -1599,93 +1599,93 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S19" t="n">
         <v>202</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="20" ht="13.2" customHeight="1" s="56">
       <c r="Q20" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>21108</v>
+        <v>21119</v>
       </c>
       <c r="S20" t="n">
         <v>202</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="21" ht="13.2" customHeight="1" s="56">
       <c r="Q21" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S21" t="n">
         <v>202</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="22" ht="13.2" customHeight="1" s="56">
       <c r="D22" s="61" t="inlineStr">
         <is>
-          <t>01-25-2024</t>
+          <t>01-26-2024</t>
         </is>
       </c>
       <c r="E22" s="62" t="n"/>
       <c r="F22" s="63" t="n"/>
       <c r="H22" s="61" t="inlineStr">
         <is>
-          <t>01-26-2024</t>
+          <t>01-27-2024</t>
         </is>
       </c>
       <c r="I22" s="62" t="n"/>
       <c r="J22" s="63" t="n"/>
       <c r="L22" s="61" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="M22" s="62" t="n"/>
       <c r="N22" s="63" t="n"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>21105</v>
+        <v>21092</v>
       </c>
       <c r="S22" t="n">
         <v>202</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1737,18 +1737,18 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S23" t="n">
         <v>202</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1757,11 +1757,11 @@
         <v>195</v>
       </c>
       <c r="E24" s="42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" s="5" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H24" s="41" t="n">
@@ -1772,34 +1772,34 @@
       </c>
       <c r="J24" s="5" t="inlineStr">
         <is>
-          <t>0.05%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="L24" s="41" t="n">
         <v>195</v>
       </c>
       <c r="M24" s="42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N24" s="5" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.08%</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>21105</v>
+        <v>12962</v>
       </c>
       <c r="S24" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1839,18 +1839,18 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S25" t="n">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1890,18 +1890,18 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S26" t="n">
         <v>202</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1910,11 +1910,11 @@
         <v>202</v>
       </c>
       <c r="E27" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
@@ -1932,27 +1932,27 @@
         <v>202</v>
       </c>
       <c r="M27" s="4" t="n">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N27" s="5" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S27" t="n">
         <v>202</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -1961,49 +1961,49 @@
         <v>203</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>3128</v>
+        <v>4163</v>
       </c>
       <c r="F28" s="5" t="inlineStr">
         <is>
-          <t>99.14%</t>
+          <t>98.86%</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>4163</v>
+        <v>1974</v>
       </c>
       <c r="J28" s="5" t="inlineStr">
         <is>
-          <t>98.84%</t>
+          <t>98.95%</t>
         </is>
       </c>
       <c r="L28" s="3" t="n">
         <v>203</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>1926</v>
+        <v>3640</v>
       </c>
       <c r="N28" s="5" t="inlineStr">
         <is>
-          <t>96.30%</t>
+          <t>98.89%</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>21105</v>
+        <v>26416</v>
       </c>
       <c r="S28" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2012,11 +2012,11 @@
         <v>207</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
@@ -2043,18 +2043,18 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>21105</v>
+        <v>16587</v>
       </c>
       <c r="S29" t="n">
         <v>202</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2063,49 +2063,49 @@
         <v>211</v>
       </c>
       <c r="E30" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="I30" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="5" t="inlineStr">
         <is>
-          <t>0.07%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="L30" s="3" t="n">
         <v>211</v>
       </c>
       <c r="M30" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" s="5" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S30" t="n">
         <v>202</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2114,49 +2114,49 @@
         <v>213</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F31" s="5" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>0.90%</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="J31" s="5" t="inlineStr">
         <is>
-          <t>0.93%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="L31" s="3" t="n">
         <v>213</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N31" s="5" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S31" t="n">
         <v>202</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F32" s="5" t="inlineStr">
         <is>
-          <t>0.03%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
@@ -2196,18 +2196,18 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S32" t="n">
         <v>202</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2247,18 +2247,18 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>21105</v>
+        <v>26419</v>
       </c>
       <c r="S33" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2298,18 +2298,18 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S34" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2349,18 +2349,18 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>21108</v>
+        <v>21119</v>
       </c>
       <c r="S35" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2369,49 +2369,49 @@
         <v>230</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F36" s="5" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.12%</t>
         </is>
       </c>
       <c r="H36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J36" s="5" t="inlineStr">
         <is>
-          <t>0.12%</t>
+          <t>0.10%</t>
         </is>
       </c>
       <c r="L36" s="3" t="n">
         <v>230</v>
       </c>
       <c r="M36" s="6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="5" t="inlineStr">
         <is>
-          <t>0.10%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S36" t="n">
         <v>202</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2431,38 +2431,38 @@
         <v>231</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="5" t="inlineStr">
         <is>
-          <t>0.00%</t>
+          <t>0.05%</t>
         </is>
       </c>
       <c r="L37" s="3" t="n">
         <v>231</v>
       </c>
       <c r="M37" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" s="5" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.14%</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R37" t="n">
-        <v>21105</v>
+        <v>21120</v>
       </c>
       <c r="S37" t="n">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3155</v>
+        <v>4211</v>
       </c>
       <c r="F38" s="5" t="inlineStr">
         <is>
@@ -2486,7 +2486,7 @@
         </is>
       </c>
       <c r="I38" s="6" t="n">
-        <v>4212</v>
+        <v>1995</v>
       </c>
       <c r="J38" s="5" t="inlineStr">
         <is>
@@ -2499,7 +2499,7 @@
         </is>
       </c>
       <c r="M38" s="6" t="n">
-        <v>2000</v>
+        <v>3681</v>
       </c>
       <c r="N38" s="5" t="inlineStr">
         <is>
@@ -2508,4905 +2508,269 @@
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S38" t="n">
         <v>202</v>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="39" ht="13.2" customHeight="1" s="56">
       <c r="Q39" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S39" t="n">
         <v>202</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="40" ht="13.2" customHeight="1" s="56">
       <c r="Q40" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>21105</v>
+        <v>12962</v>
       </c>
       <c r="S40" t="n">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="41" ht="13.2" customHeight="1" s="56">
       <c r="Q41" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S41" t="n">
         <v>202</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="42" ht="13.2" customHeight="1" s="56">
       <c r="Q42" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S42" t="n">
         <v>202</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="43" ht="13.2" customHeight="1" s="56">
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>16551</v>
+        <v>15305</v>
       </c>
       <c r="S43" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="44" ht="13.2" customHeight="1" s="56">
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S44" t="n">
         <v>202</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="45" ht="13.2" customHeight="1" s="56">
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S45" t="n">
         <v>202</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="46" ht="13.2" customHeight="1" s="56">
       <c r="Q46" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S46" t="n">
         <v>202</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="47" ht="13.2" customHeight="1" s="56">
       <c r="Q47" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S47" t="n">
         <v>202</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>PHSUB-202401251138</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="48" ht="13.2" customHeight="1" s="56">
       <c r="Q48" t="inlineStr">
         <is>
-          <t>01-25-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>16553</v>
+        <v>21119</v>
       </c>
       <c r="S48" t="n">
         <v>202</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>PHX-YE-20240123</t>
+          <t>PHX-YE-20240126</t>
         </is>
       </c>
     </row>
     <row r="49" ht="13.2" customHeight="1" s="56">
       <c r="Q49" t="inlineStr">
         <is>
-          <t>01-27-2024</t>
+          <t>01-28-2024</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>21105</v>
+        <v>21119</v>
       </c>
       <c r="S49" t="n">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="50" ht="13.2" customHeight="1" s="56">
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R50" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S50" t="n">
-        <v>202</v>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="51" ht="13.2" customHeight="1" s="56">
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R51" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S51" t="n">
-        <v>202</v>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="52" ht="13.2" customHeight="1" s="56">
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S52" t="n">
-        <v>202</v>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="53" ht="13.2" customHeight="1" s="56">
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R53" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S53" t="n">
-        <v>202</v>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R54" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S54" t="n">
-        <v>202</v>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="55" ht="13.2" customHeight="1" s="56">
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R55" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S55" t="n">
-        <v>202</v>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="56" ht="13.2" customHeight="1" s="56">
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R56" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S56" t="n">
-        <v>202</v>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="57" ht="13.2" customHeight="1" s="56">
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R57" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S57" t="n">
-        <v>202</v>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="58" ht="13.2" customHeight="1" s="56">
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R58" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S58" t="n">
-        <v>202</v>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="59" ht="13.2" customHeight="1" s="56">
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R59" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S59" t="n">
-        <v>202</v>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="60" ht="13.2" customHeight="1" s="56">
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R60" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S60" t="n">
-        <v>202</v>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="61" ht="13.2" customHeight="1" s="56">
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S61" t="n">
-        <v>231</v>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="62" ht="13.2" customHeight="1" s="56">
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R62" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S62" t="n">
-        <v>202</v>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="63" ht="13.2" customHeight="1" s="56">
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S63" t="n">
-        <v>202</v>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="64" ht="13.2" customHeight="1" s="56">
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S64" t="n">
-        <v>202</v>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="65" ht="13.2" customHeight="1" s="56">
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>12969</v>
-      </c>
-      <c r="S65" t="n">
-        <v>202</v>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="66" ht="13.2" customHeight="1" s="56">
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R66" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S66" t="n">
-        <v>211</v>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t>PHSUB-202401231138</t>
-        </is>
-      </c>
-    </row>
-    <row r="67" ht="13.2" customHeight="1" s="56">
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R67" t="n">
-        <v>20559</v>
-      </c>
-      <c r="S67" t="n">
-        <v>211</v>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="68" ht="13.2" customHeight="1" s="56">
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R68" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S68" t="n">
-        <v>211</v>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="69" ht="13.2" customHeight="1" s="56">
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R69" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S69" t="n">
-        <v>211</v>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R70" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S70" t="n">
-        <v>211</v>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R71" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S71" t="n">
-        <v>202</v>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R72" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S72" t="n">
-        <v>211</v>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="73" ht="13.2" customHeight="1" s="56">
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R73" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S73" t="n">
-        <v>202</v>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="74" ht="13.2" customHeight="1" s="56">
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R74" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S74" t="n">
-        <v>202</v>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="75" ht="13.2" customHeight="1" s="56">
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R75" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S75" t="n">
-        <v>231</v>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="76" ht="13.2" customHeight="1" s="56">
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R76" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S76" t="n">
-        <v>202</v>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="77" ht="13.2" customHeight="1" s="56">
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S77" t="n">
-        <v>231</v>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="78" ht="13.2" customHeight="1" s="56">
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S78" t="n">
-        <v>202</v>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="79" ht="13.2" customHeight="1" s="56">
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R79" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S79" t="n">
-        <v>202</v>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" ht="13.2" customHeight="1" s="56">
-      <c r="Q80" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R80" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S80" t="n">
-        <v>202</v>
-      </c>
-      <c r="T80" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="81" ht="13.2" customHeight="1" s="56">
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R81" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S81" t="n">
-        <v>202</v>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="82" ht="13.2" customHeight="1" s="56">
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S82" t="n">
-        <v>202</v>
-      </c>
-      <c r="T82" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="83" ht="13.2" customHeight="1" s="56">
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S83" t="n">
-        <v>202</v>
-      </c>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
+          <t>PHX-YE-20240126</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" ht="13.2" customHeight="1" s="56"/>
+    <row r="51" ht="13.2" customHeight="1" s="56"/>
+    <row r="52" ht="13.2" customHeight="1" s="56"/>
+    <row r="53" ht="13.2" customHeight="1" s="56"/>
+    <row r="55" ht="13.2" customHeight="1" s="56"/>
+    <row r="56" ht="13.2" customHeight="1" s="56"/>
+    <row r="57" ht="13.2" customHeight="1" s="56"/>
+    <row r="58" ht="13.2" customHeight="1" s="56"/>
+    <row r="59" ht="13.2" customHeight="1" s="56"/>
+    <row r="60" ht="13.2" customHeight="1" s="56"/>
+    <row r="61" ht="13.2" customHeight="1" s="56"/>
+    <row r="62" ht="13.2" customHeight="1" s="56"/>
+    <row r="63" ht="13.2" customHeight="1" s="56"/>
+    <row r="64" ht="13.2" customHeight="1" s="56"/>
+    <row r="65" ht="13.2" customHeight="1" s="56"/>
+    <row r="66" ht="13.2" customHeight="1" s="56"/>
+    <row r="67" ht="13.2" customHeight="1" s="56"/>
+    <row r="68" ht="13.2" customHeight="1" s="56"/>
+    <row r="69" ht="13.2" customHeight="1" s="56"/>
+    <row r="73" ht="13.2" customHeight="1" s="56"/>
+    <row r="74" ht="13.2" customHeight="1" s="56"/>
+    <row r="75" ht="13.2" customHeight="1" s="56"/>
+    <row r="76" ht="13.2" customHeight="1" s="56"/>
+    <row r="77" ht="13.2" customHeight="1" s="56"/>
+    <row r="78" ht="13.2" customHeight="1" s="56"/>
+    <row r="79" ht="13.2" customHeight="1" s="56"/>
+    <row r="80" ht="13.2" customHeight="1" s="56"/>
+    <row r="81" ht="13.2" customHeight="1" s="56"/>
+    <row r="82" ht="13.2" customHeight="1" s="56"/>
+    <row r="83" ht="13.2" customHeight="1" s="56"/>
     <row r="84" ht="13.2" customHeight="1" s="56">
       <c r="A84" s="8" t="n"/>
-      <c r="Q84" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R84" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S84" t="n">
-        <v>202</v>
-      </c>
-      <c r="T84" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="85" ht="13.2" customHeight="1" s="56">
       <c r="A85" s="8" t="n"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R85" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S85" t="n">
-        <v>202</v>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="86" ht="13.2" customHeight="1" s="56">
       <c r="A86" s="8" t="n"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R86" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S86" t="n">
-        <v>231</v>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="87" ht="13.2" customHeight="1" s="56">
       <c r="A87" s="8" t="n"/>
-      <c r="Q87" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R87" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S87" t="n">
-        <v>202</v>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="88" ht="13.2" customHeight="1" s="56">
       <c r="A88" s="8" t="n"/>
-      <c r="Q88" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R88" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S88" t="n">
-        <v>202</v>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="89" ht="13.2" customHeight="1" s="56">
       <c r="A89" s="8" t="n"/>
-      <c r="Q89" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R89" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S89" t="n">
-        <v>202</v>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
     </row>
     <row r="90" ht="13.2" customHeight="1" s="56">
       <c r="A90" s="8" t="n"/>
-      <c r="Q90" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R90" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S90" t="n">
-        <v>202</v>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R91" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S91" t="n">
-        <v>202</v>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="Q92" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R92" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S92" t="n">
-        <v>202</v>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="Q93" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R93" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S93" t="n">
-        <v>202</v>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R94" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S94" t="n">
-        <v>202</v>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S95" t="n">
-        <v>211</v>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="Q96" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R96" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S96" t="n">
-        <v>202</v>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S97" t="n">
-        <v>202</v>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R98" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S98" t="n">
-        <v>202</v>
-      </c>
-      <c r="T98" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="Q99" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R99" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S99" t="n">
-        <v>202</v>
-      </c>
-      <c r="T99" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S100" t="n">
-        <v>202</v>
-      </c>
-      <c r="T100" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S101" t="n">
-        <v>202</v>
-      </c>
-      <c r="T101" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="Q102" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R102" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S102" t="n">
-        <v>202</v>
-      </c>
-      <c r="T102" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="Q103" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R103" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S103" t="n">
-        <v>202</v>
-      </c>
-      <c r="T103" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="Q104" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R104" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S104" t="n">
-        <v>211</v>
-      </c>
-      <c r="T104" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R105" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S105" t="n">
-        <v>202</v>
-      </c>
-      <c r="T105" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="Q106" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R106" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S106" t="n">
-        <v>202</v>
-      </c>
-      <c r="T106" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="Q107" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R107" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S107" t="n">
-        <v>202</v>
-      </c>
-      <c r="T107" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="Q108" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R108" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S108" t="n">
-        <v>202</v>
-      </c>
-      <c r="T108" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="Q109" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R109" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S109" t="n">
-        <v>202</v>
-      </c>
-      <c r="T109" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240123</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="Q110" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R110" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S110" t="n">
-        <v>211</v>
-      </c>
-      <c r="T110" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="Q111" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R111" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S111" t="n">
-        <v>202</v>
-      </c>
-      <c r="T111" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="Q112" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R112" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S112" t="n">
-        <v>202</v>
-      </c>
-      <c r="T112" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="Q113" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R113" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S113" t="n">
-        <v>202</v>
-      </c>
-      <c r="T113" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="Q114" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R114" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S114" t="n">
-        <v>202</v>
-      </c>
-      <c r="T114" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="Q115" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R115" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S115" t="n">
-        <v>202</v>
-      </c>
-      <c r="T115" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="Q116" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R116" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S116" t="n">
-        <v>202</v>
-      </c>
-      <c r="T116" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="Q117" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R117" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S117" t="n">
-        <v>202</v>
-      </c>
-      <c r="T117" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="Q118" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R118" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S118" t="n">
-        <v>202</v>
-      </c>
-      <c r="T118" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R119" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S119" t="n">
-        <v>202</v>
-      </c>
-      <c r="T119" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="Q120" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R120" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S120" t="n">
-        <v>202</v>
-      </c>
-      <c r="T120" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="Q121" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R121" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S121" t="n">
-        <v>202</v>
-      </c>
-      <c r="T121" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="Q122" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R122" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S122" t="n">
-        <v>231</v>
-      </c>
-      <c r="T122" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="Q123" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R123" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S123" t="n">
-        <v>202</v>
-      </c>
-      <c r="T123" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="Q124" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R124" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S124" t="n">
-        <v>202</v>
-      </c>
-      <c r="T124" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R125" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S125" t="n">
-        <v>202</v>
-      </c>
-      <c r="T125" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="Q126" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R126" t="n">
-        <v>12969</v>
-      </c>
-      <c r="S126" t="n">
-        <v>202</v>
-      </c>
-      <c r="T126" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R127" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S127" t="n">
-        <v>211</v>
-      </c>
-      <c r="T127" t="inlineStr">
-        <is>
-          <t>PHSUB-202401231138</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="Q128" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R128" t="n">
-        <v>20559</v>
-      </c>
-      <c r="S128" t="n">
-        <v>211</v>
-      </c>
-      <c r="T128" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R129" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S129" t="n">
-        <v>211</v>
-      </c>
-      <c r="T129" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="Q130" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R130" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S130" t="n">
-        <v>211</v>
-      </c>
-      <c r="T130" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R131" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S131" t="n">
-        <v>211</v>
-      </c>
-      <c r="T131" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S132" t="n">
-        <v>202</v>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R133" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S133" t="n">
-        <v>211</v>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="Q134" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R134" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S134" t="n">
-        <v>202</v>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="Q135" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R135" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S135" t="n">
-        <v>202</v>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S136" t="n">
-        <v>231</v>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S137" t="n">
-        <v>202</v>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="Q138" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R138" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S138" t="n">
-        <v>231</v>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R139" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S139" t="n">
-        <v>202</v>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="Q140" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R140" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S140" t="n">
-        <v>202</v>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="Q141" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R141" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S141" t="n">
-        <v>202</v>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="Q142" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R142" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S142" t="n">
-        <v>202</v>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="Q143" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R143" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S143" t="n">
-        <v>202</v>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="Q144" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R144" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S144" t="n">
-        <v>202</v>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R145" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S145" t="n">
-        <v>202</v>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="Q146" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R146" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S146" t="n">
-        <v>202</v>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="Q147" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R147" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S147" t="n">
-        <v>231</v>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="Q148" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R148" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S148" t="n">
-        <v>202</v>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="Q149" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R149" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S149" t="n">
-        <v>202</v>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R150" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S150" t="n">
-        <v>202</v>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R151" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S151" t="n">
-        <v>202</v>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S152" t="n">
-        <v>202</v>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S153" t="n">
-        <v>202</v>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R154" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S154" t="n">
-        <v>202</v>
-      </c>
-      <c r="T154" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R155" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S155" t="n">
-        <v>202</v>
-      </c>
-      <c r="T155" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="Q156" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R156" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S156" t="n">
-        <v>211</v>
-      </c>
-      <c r="T156" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="Q157" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R157" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S157" t="n">
-        <v>202</v>
-      </c>
-      <c r="T157" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="Q158" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R158" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S158" t="n">
-        <v>202</v>
-      </c>
-      <c r="T158" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="Q159" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R159" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S159" t="n">
-        <v>202</v>
-      </c>
-      <c r="T159" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R160" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S160" t="n">
-        <v>202</v>
-      </c>
-      <c r="T160" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="Q161" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R161" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S161" t="n">
-        <v>202</v>
-      </c>
-      <c r="T161" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="Q162" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R162" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S162" t="n">
-        <v>202</v>
-      </c>
-      <c r="T162" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="Q163" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R163" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S163" t="n">
-        <v>202</v>
-      </c>
-      <c r="T163" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="Q164" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R164" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S164" t="n">
-        <v>202</v>
-      </c>
-      <c r="T164" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="Q165" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R165" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S165" t="n">
-        <v>211</v>
-      </c>
-      <c r="T165" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="Q166" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R166" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S166" t="n">
-        <v>202</v>
-      </c>
-      <c r="T166" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="Q167" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R167" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S167" t="n">
-        <v>202</v>
-      </c>
-      <c r="T167" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="Q168" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R168" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S168" t="n">
-        <v>202</v>
-      </c>
-      <c r="T168" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="Q169" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R169" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S169" t="n">
-        <v>202</v>
-      </c>
-      <c r="T169" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="Q170" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R170" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S170" t="n">
-        <v>202</v>
-      </c>
-      <c r="T170" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240123</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="Q171" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R171" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S171" t="n">
-        <v>211</v>
-      </c>
-      <c r="T171" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="Q172" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R172" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S172" t="n">
-        <v>202</v>
-      </c>
-      <c r="T172" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R173" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S173" t="n">
-        <v>202</v>
-      </c>
-      <c r="T173" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R174" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S174" t="n">
-        <v>202</v>
-      </c>
-      <c r="T174" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="Q175" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R175" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S175" t="n">
-        <v>202</v>
-      </c>
-      <c r="T175" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R176" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S176" t="n">
-        <v>202</v>
-      </c>
-      <c r="T176" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="Q177" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R177" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S177" t="n">
-        <v>202</v>
-      </c>
-      <c r="T177" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="Q178" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R178" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S178" t="n">
-        <v>202</v>
-      </c>
-      <c r="T178" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="Q179" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R179" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S179" t="n">
-        <v>202</v>
-      </c>
-      <c r="T179" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="Q180" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R180" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S180" t="n">
-        <v>202</v>
-      </c>
-      <c r="T180" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="Q181" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R181" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S181" t="n">
-        <v>202</v>
-      </c>
-      <c r="T181" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="Q182" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R182" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S182" t="n">
-        <v>202</v>
-      </c>
-      <c r="T182" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="Q183" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R183" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S183" t="n">
-        <v>231</v>
-      </c>
-      <c r="T183" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="Q184" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R184" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S184" t="n">
-        <v>202</v>
-      </c>
-      <c r="T184" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="Q185" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R185" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S185" t="n">
-        <v>202</v>
-      </c>
-      <c r="T185" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="Q186" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R186" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S186" t="n">
-        <v>202</v>
-      </c>
-      <c r="T186" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="Q187" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R187" t="n">
-        <v>12969</v>
-      </c>
-      <c r="S187" t="n">
-        <v>202</v>
-      </c>
-      <c r="T187" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="Q188" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R188" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S188" t="n">
-        <v>211</v>
-      </c>
-      <c r="T188" t="inlineStr">
-        <is>
-          <t>PHSUB-202401231138</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="Q189" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R189" t="n">
-        <v>20559</v>
-      </c>
-      <c r="S189" t="n">
-        <v>211</v>
-      </c>
-      <c r="T189" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R190" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S190" t="n">
-        <v>211</v>
-      </c>
-      <c r="T190" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="Q191" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R191" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S191" t="n">
-        <v>211</v>
-      </c>
-      <c r="T191" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="Q192" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R192" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S192" t="n">
-        <v>211</v>
-      </c>
-      <c r="T192" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="Q193" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R193" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S193" t="n">
-        <v>202</v>
-      </c>
-      <c r="T193" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="Q194" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R194" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S194" t="n">
-        <v>211</v>
-      </c>
-      <c r="T194" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="Q195" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R195" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S195" t="n">
-        <v>202</v>
-      </c>
-      <c r="T195" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R196" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S196" t="n">
-        <v>202</v>
-      </c>
-      <c r="T196" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S197" t="n">
-        <v>231</v>
-      </c>
-      <c r="T197" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="Q198" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R198" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S198" t="n">
-        <v>202</v>
-      </c>
-      <c r="T198" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="Q199" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R199" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S199" t="n">
-        <v>231</v>
-      </c>
-      <c r="T199" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R200" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S200" t="n">
-        <v>202</v>
-      </c>
-      <c r="T200" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R201" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S201" t="n">
-        <v>202</v>
-      </c>
-      <c r="T201" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R202" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S202" t="n">
-        <v>202</v>
-      </c>
-      <c r="T202" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="Q203" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R203" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S203" t="n">
-        <v>202</v>
-      </c>
-      <c r="T203" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="Q204" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R204" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S204" t="n">
-        <v>202</v>
-      </c>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R205" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S205" t="n">
-        <v>202</v>
-      </c>
-      <c r="T205" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R206" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S206" t="n">
-        <v>202</v>
-      </c>
-      <c r="T206" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R207" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S207" t="n">
-        <v>202</v>
-      </c>
-      <c r="T207" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R208" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S208" t="n">
-        <v>231</v>
-      </c>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="Q209" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R209" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S209" t="n">
-        <v>202</v>
-      </c>
-      <c r="T209" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="Q210" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R210" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S210" t="n">
-        <v>202</v>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="Q211" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R211" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S211" t="n">
-        <v>202</v>
-      </c>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R212" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S212" t="n">
-        <v>202</v>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R213" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S213" t="n">
-        <v>202</v>
-      </c>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="Q214" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R214" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S214" t="n">
-        <v>202</v>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="Q215" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R215" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S215" t="n">
-        <v>202</v>
-      </c>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="Q216" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R216" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S216" t="n">
-        <v>202</v>
-      </c>
-      <c r="T216" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="Q217" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R217" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S217" t="n">
-        <v>211</v>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="Q218" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R218" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S218" t="n">
-        <v>202</v>
-      </c>
-      <c r="T218" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="Q219" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R219" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S219" t="n">
-        <v>202</v>
-      </c>
-      <c r="T219" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="Q220" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R220" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S220" t="n">
-        <v>202</v>
-      </c>
-      <c r="T220" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="Q221" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R221" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S221" t="n">
-        <v>202</v>
-      </c>
-      <c r="T221" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="Q222" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R222" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S222" t="n">
-        <v>202</v>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="Q223" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R223" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S223" t="n">
-        <v>202</v>
-      </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="Q224" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R224" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S224" t="n">
-        <v>202</v>
-      </c>
-      <c r="T224" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="Q225" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R225" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S225" t="n">
-        <v>202</v>
-      </c>
-      <c r="T225" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="226">
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R226" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S226" t="n">
-        <v>211</v>
-      </c>
-      <c r="T226" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="227">
-      <c r="Q227" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R227" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S227" t="n">
-        <v>202</v>
-      </c>
-      <c r="T227" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="228">
-      <c r="Q228" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R228" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S228" t="n">
-        <v>202</v>
-      </c>
-      <c r="T228" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="229">
-      <c r="Q229" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R229" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S229" t="n">
-        <v>202</v>
-      </c>
-      <c r="T229" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="230">
-      <c r="Q230" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R230" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S230" t="n">
-        <v>202</v>
-      </c>
-      <c r="T230" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="231">
-      <c r="Q231" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R231" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S231" t="n">
-        <v>202</v>
-      </c>
-      <c r="T231" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240123</t>
-        </is>
-      </c>
-    </row>
-    <row r="232">
-      <c r="Q232" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R232" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S232" t="n">
-        <v>211</v>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S233" t="n">
-        <v>202</v>
-      </c>
-      <c r="T233" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="Q234" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R234" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S234" t="n">
-        <v>202</v>
-      </c>
-      <c r="T234" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S235" t="n">
-        <v>202</v>
-      </c>
-      <c r="T235" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R236" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S236" t="n">
-        <v>202</v>
-      </c>
-      <c r="T236" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="Q237" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R237" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S237" t="n">
-        <v>202</v>
-      </c>
-      <c r="T237" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="Q238" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R238" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S238" t="n">
-        <v>202</v>
-      </c>
-      <c r="T238" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="Q239" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R239" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S239" t="n">
-        <v>202</v>
-      </c>
-      <c r="T239" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="Q240" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R240" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S240" t="n">
-        <v>202</v>
-      </c>
-      <c r="T240" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="Q241" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R241" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S241" t="n">
-        <v>202</v>
-      </c>
-      <c r="T241" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="Q242" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R242" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S242" t="n">
-        <v>202</v>
-      </c>
-      <c r="T242" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="Q243" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R243" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S243" t="n">
-        <v>202</v>
-      </c>
-      <c r="T243" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="Q244" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R244" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S244" t="n">
-        <v>231</v>
-      </c>
-      <c r="T244" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="Q245" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R245" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S245" t="n">
-        <v>202</v>
-      </c>
-      <c r="T245" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="Q246" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R246" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S246" t="n">
-        <v>202</v>
-      </c>
-      <c r="T246" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="Q247" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R247" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S247" t="n">
-        <v>202</v>
-      </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="Q248" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R248" t="n">
-        <v>12969</v>
-      </c>
-      <c r="S248" t="n">
-        <v>202</v>
-      </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="249">
-      <c r="Q249" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R249" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S249" t="n">
-        <v>211</v>
-      </c>
-      <c r="T249" t="inlineStr">
-        <is>
-          <t>PHSUB-202401231138</t>
-        </is>
-      </c>
-    </row>
-    <row r="250">
-      <c r="Q250" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R250" t="n">
-        <v>20559</v>
-      </c>
-      <c r="S250" t="n">
-        <v>211</v>
-      </c>
-      <c r="T250" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="251">
-      <c r="Q251" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R251" t="n">
-        <v>15307</v>
-      </c>
-      <c r="S251" t="n">
-        <v>211</v>
-      </c>
-      <c r="T251" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="252">
-      <c r="Q252" t="inlineStr">
-        <is>
-          <t>01-26-2024</t>
-        </is>
-      </c>
-      <c r="R252" t="n">
-        <v>15306</v>
-      </c>
-      <c r="S252" t="n">
-        <v>211</v>
-      </c>
-      <c r="T252" t="inlineStr">
-        <is>
-          <t>PHSUB-202401241106</t>
-        </is>
-      </c>
-    </row>
-    <row r="253">
-      <c r="Q253" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R253" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S253" t="n">
-        <v>211</v>
-      </c>
-      <c r="T253" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="254">
-      <c r="Q254" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R254" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S254" t="n">
-        <v>202</v>
-      </c>
-      <c r="T254" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="255">
-      <c r="Q255" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R255" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S255" t="n">
-        <v>211</v>
-      </c>
-      <c r="T255" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="256">
-      <c r="Q256" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R256" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S256" t="n">
-        <v>202</v>
-      </c>
-      <c r="T256" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="257">
-      <c r="Q257" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R257" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S257" t="n">
-        <v>202</v>
-      </c>
-      <c r="T257" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="258">
-      <c r="Q258" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R258" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S258" t="n">
-        <v>231</v>
-      </c>
-      <c r="T258" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="259">
-      <c r="Q259" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R259" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S259" t="n">
-        <v>202</v>
-      </c>
-      <c r="T259" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="260">
-      <c r="Q260" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R260" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S260" t="n">
-        <v>231</v>
-      </c>
-      <c r="T260" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="261">
-      <c r="Q261" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R261" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S261" t="n">
-        <v>202</v>
-      </c>
-      <c r="T261" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="262">
-      <c r="Q262" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R262" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S262" t="n">
-        <v>202</v>
-      </c>
-      <c r="T262" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="Q263" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R263" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S263" t="n">
-        <v>202</v>
-      </c>
-      <c r="T263" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="Q264" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R264" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S264" t="n">
-        <v>202</v>
-      </c>
-      <c r="T264" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="Q265" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R265" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S265" t="n">
-        <v>202</v>
-      </c>
-      <c r="T265" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="Q266" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R266" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S266" t="n">
-        <v>202</v>
-      </c>
-      <c r="T266" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="Q267" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R267" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S267" t="n">
-        <v>202</v>
-      </c>
-      <c r="T267" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="Q268" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R268" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S268" t="n">
-        <v>202</v>
-      </c>
-      <c r="T268" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="269">
-      <c r="Q269" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R269" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S269" t="n">
-        <v>231</v>
-      </c>
-      <c r="T269" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="270">
-      <c r="Q270" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R270" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S270" t="n">
-        <v>202</v>
-      </c>
-      <c r="T270" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="271">
-      <c r="Q271" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R271" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S271" t="n">
-        <v>202</v>
-      </c>
-      <c r="T271" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="272">
-      <c r="Q272" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R272" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S272" t="n">
-        <v>202</v>
-      </c>
-      <c r="T272" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="273">
-      <c r="Q273" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R273" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S273" t="n">
-        <v>202</v>
-      </c>
-      <c r="T273" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="274">
-      <c r="Q274" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R274" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S274" t="n">
-        <v>202</v>
-      </c>
-      <c r="T274" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="275">
-      <c r="Q275" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R275" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S275" t="n">
-        <v>202</v>
-      </c>
-      <c r="T275" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="276">
-      <c r="Q276" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R276" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S276" t="n">
-        <v>202</v>
-      </c>
-      <c r="T276" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="277">
-      <c r="Q277" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R277" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S277" t="n">
-        <v>202</v>
-      </c>
-      <c r="T277" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="278">
-      <c r="Q278" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R278" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S278" t="n">
-        <v>211</v>
-      </c>
-      <c r="T278" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="279">
-      <c r="Q279" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R279" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S279" t="n">
-        <v>202</v>
-      </c>
-      <c r="T279" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="280">
-      <c r="Q280" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R280" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S280" t="n">
-        <v>202</v>
-      </c>
-      <c r="T280" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="281">
-      <c r="Q281" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R281" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S281" t="n">
-        <v>202</v>
-      </c>
-      <c r="T281" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="282">
-      <c r="Q282" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R282" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S282" t="n">
-        <v>202</v>
-      </c>
-      <c r="T282" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="283">
-      <c r="Q283" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R283" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S283" t="n">
-        <v>202</v>
-      </c>
-      <c r="T283" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="284">
-      <c r="Q284" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R284" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S284" t="n">
-        <v>202</v>
-      </c>
-      <c r="T284" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="285">
-      <c r="Q285" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R285" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S285" t="n">
-        <v>202</v>
-      </c>
-      <c r="T285" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="286">
-      <c r="Q286" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R286" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S286" t="n">
-        <v>202</v>
-      </c>
-      <c r="T286" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="287">
-      <c r="Q287" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R287" t="n">
-        <v>16551</v>
-      </c>
-      <c r="S287" t="n">
-        <v>211</v>
-      </c>
-      <c r="T287" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="288">
-      <c r="Q288" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R288" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S288" t="n">
-        <v>202</v>
-      </c>
-      <c r="T288" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="289">
-      <c r="Q289" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R289" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S289" t="n">
-        <v>202</v>
-      </c>
-      <c r="T289" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="Q290" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R290" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S290" t="n">
-        <v>202</v>
-      </c>
-      <c r="T290" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="Q291" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R291" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S291" t="n">
-        <v>202</v>
-      </c>
-      <c r="T291" t="inlineStr">
-        <is>
-          <t>PHSUB-202401251138</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="Q292" t="inlineStr">
-        <is>
-          <t>01-25-2024</t>
-        </is>
-      </c>
-      <c r="R292" t="n">
-        <v>16553</v>
-      </c>
-      <c r="S292" t="n">
-        <v>202</v>
-      </c>
-      <c r="T292" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240123</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="Q293" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R293" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S293" t="n">
-        <v>211</v>
-      </c>
-      <c r="T293" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="Q294" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R294" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S294" t="n">
-        <v>202</v>
-      </c>
-      <c r="T294" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="Q295" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R295" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S295" t="n">
-        <v>202</v>
-      </c>
-      <c r="T295" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="Q296" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R296" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S296" t="n">
-        <v>202</v>
-      </c>
-      <c r="T296" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="Q297" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R297" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S297" t="n">
-        <v>202</v>
-      </c>
-      <c r="T297" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="Q298" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R298" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S298" t="n">
-        <v>202</v>
-      </c>
-      <c r="T298" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="Q299" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R299" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S299" t="n">
-        <v>202</v>
-      </c>
-      <c r="T299" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="Q300" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R300" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S300" t="n">
-        <v>202</v>
-      </c>
-      <c r="T300" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="Q301" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R301" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S301" t="n">
-        <v>202</v>
-      </c>
-      <c r="T301" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="Q302" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R302" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S302" t="n">
-        <v>202</v>
-      </c>
-      <c r="T302" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="Q303" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R303" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S303" t="n">
-        <v>202</v>
-      </c>
-      <c r="T303" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="Q304" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R304" t="n">
-        <v>21108</v>
-      </c>
-      <c r="S304" t="n">
-        <v>202</v>
-      </c>
-      <c r="T304" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="Q305" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R305" t="n">
-        <v>12961</v>
-      </c>
-      <c r="S305" t="n">
-        <v>231</v>
-      </c>
-      <c r="T305" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="Q306" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R306" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S306" t="n">
-        <v>202</v>
-      </c>
-      <c r="T306" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="Q307" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R307" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S307" t="n">
-        <v>202</v>
-      </c>
-      <c r="T307" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="Q308" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R308" t="n">
-        <v>21105</v>
-      </c>
-      <c r="S308" t="n">
-        <v>202</v>
-      </c>
-      <c r="T308" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="Q309" t="inlineStr">
-        <is>
-          <t>01-27-2024</t>
-        </is>
-      </c>
-      <c r="R309" t="n">
-        <v>12969</v>
-      </c>
-      <c r="S309" t="n">
-        <v>202</v>
-      </c>
-      <c r="T309" t="inlineStr">
-        <is>
-          <t>PHX-YE-20240125</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
